--- a/Jogos_da_Semana_FlashScore_2025-04-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-22.xlsx
@@ -656,16 +656,16 @@
         <v>3.8</v>
       </c>
       <c r="J2" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L2" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N2" t="n">
         <v>1.5</v>
@@ -906,10 +906,10 @@
         <v>9</v>
       </c>
       <c r="L4" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M4" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N4" t="n">
         <v>2.1</v>
@@ -1094,7 +1094,7 @@
         <v>29</v>
       </c>
       <c r="AH5" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AI5" t="n">
         <v>67</v>
@@ -1937,7 +1937,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="H17" t="n">
         <v>4.33</v>
@@ -1958,7 +1958,7 @@
         <v>4.5</v>
       </c>
       <c r="N17" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="O17" t="n">
         <v>2.25</v>
@@ -2059,7 +2059,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H18" t="n">
         <v>3.5</v>
@@ -2068,13 +2068,13 @@
         <v>7</v>
       </c>
       <c r="J18" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K18" t="n">
         <v>11</v>
       </c>
       <c r="L18" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M18" t="n">
         <v>3.75</v>
@@ -2190,13 +2190,13 @@
         <v>2.55</v>
       </c>
       <c r="J19" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K19" t="n">
         <v>11</v>
       </c>
       <c r="L19" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M19" t="n">
         <v>3.75</v>
@@ -2214,7 +2214,7 @@
         <v>2.75</v>
       </c>
       <c r="R19" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S19" t="n">
         <v>2.05</v>
@@ -2312,13 +2312,13 @@
         <v>1.67</v>
       </c>
       <c r="J20" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K20" t="n">
         <v>9.5</v>
       </c>
       <c r="L20" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="M20" t="n">
         <v>3.4</v>
@@ -2336,10 +2336,10 @@
         <v>2.75</v>
       </c>
       <c r="R20" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="S20" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="T20" t="n">
         <v>12</v>
@@ -2440,7 +2440,7 @@
         <v>1.03</v>
       </c>
       <c r="L21" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="M21" t="n">
         <v>4.5</v>
@@ -2556,13 +2556,13 @@
         <v>1.36</v>
       </c>
       <c r="J22" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K22" t="n">
         <v>12</v>
       </c>
       <c r="L22" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="M22" t="n">
         <v>5.5</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-22.xlsx
@@ -647,22 +647,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H2" t="n">
         <v>4.1</v>
       </c>
       <c r="I2" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J2" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K2" t="n">
         <v>19</v>
       </c>
       <c r="L2" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="M2" t="n">
         <v>5.5</v>
@@ -769,22 +769,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H3" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="I3" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="J3" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K3" t="n">
         <v>21</v>
       </c>
       <c r="L3" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="M3" t="n">
         <v>6</v>
@@ -841,7 +841,7 @@
         <v>151</v>
       </c>
       <c r="AE3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF3" t="n">
         <v>9</v>
@@ -891,22 +891,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="H4" t="n">
         <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="J4" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K4" t="n">
         <v>9</v>
       </c>
       <c r="L4" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M4" t="n">
         <v>3.2</v>
@@ -933,7 +933,7 @@
         <v>6.5</v>
       </c>
       <c r="U4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V4" t="n">
         <v>8.5</v>
@@ -960,16 +960,16 @@
         <v>51</v>
       </c>
       <c r="AD4" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AE4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF4" t="n">
         <v>23</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH4" t="n">
         <v>51</v>
@@ -1022,13 +1022,13 @@
         <v>13</v>
       </c>
       <c r="J5" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K5" t="n">
         <v>19</v>
       </c>
       <c r="L5" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="M5" t="n">
         <v>5.5</v>
@@ -1052,13 +1052,13 @@
         <v>1.8</v>
       </c>
       <c r="T5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U5" t="n">
         <v>7</v>
       </c>
       <c r="V5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W5" t="n">
         <v>8</v>
@@ -1067,7 +1067,7 @@
         <v>11</v>
       </c>
       <c r="Y5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z5" t="n">
         <v>19</v>
@@ -1085,13 +1085,13 @@
         <v>301</v>
       </c>
       <c r="AE5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF5" t="n">
         <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AH5" t="n">
         <v>126</v>
@@ -1378,36 +1378,92 @@
           <t>Dalian K'un City</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+      <c r="G8" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.2</v>
+      </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr"/>
-      <c r="AB8" t="inlineStr"/>
-      <c r="AC8" t="inlineStr"/>
-      <c r="AD8" t="inlineStr"/>
-      <c r="AE8" t="inlineStr"/>
-      <c r="AF8" t="inlineStr"/>
-      <c r="AG8" t="inlineStr"/>
-      <c r="AH8" t="inlineStr"/>
-      <c r="AI8" t="inlineStr"/>
-      <c r="AJ8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="T8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="U8" t="n">
+        <v>17</v>
+      </c>
+      <c r="V8" t="n">
+        <v>11</v>
+      </c>
+      <c r="W8" t="n">
+        <v>45</v>
+      </c>
+      <c r="X8" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>65</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1440,36 +1496,92 @@
           <t>Nanjing City</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+      <c r="G9" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.1</v>
+      </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
-      <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="inlineStr"/>
-      <c r="AD9" t="inlineStr"/>
-      <c r="AE9" t="inlineStr"/>
-      <c r="AF9" t="inlineStr"/>
-      <c r="AG9" t="inlineStr"/>
-      <c r="AH9" t="inlineStr"/>
-      <c r="AI9" t="inlineStr"/>
-      <c r="AJ9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T9" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="U9" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="W9" t="n">
+        <v>23</v>
+      </c>
+      <c r="X9" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>75</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>600</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1502,36 +1614,88 @@
           <t>Shenzhen Juniors</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+      <c r="G10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="I10" t="n">
+        <v>11.25</v>
+      </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.75</v>
+      </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr"/>
-      <c r="AH10" t="inlineStr"/>
-      <c r="AI10" t="inlineStr"/>
-      <c r="AJ10" t="inlineStr"/>
+      <c r="R10" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="T10" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="U10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="W10" t="n">
+        <v>8</v>
+      </c>
+      <c r="X10" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>150</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>90</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>35</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>500</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>200</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1564,36 +1728,92 @@
           <t>Qingdao Red Lions</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+      <c r="G11" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.25</v>
+      </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="inlineStr"/>
-      <c r="AH11" t="inlineStr"/>
-      <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="T11" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="U11" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="V11" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="W11" t="n">
+        <v>22</v>
+      </c>
+      <c r="X11" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>37</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>700</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>45</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1626,36 +1846,92 @@
           <t>Chongqing Tonglianglong</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+      <c r="G12" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.1</v>
+      </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="inlineStr"/>
-      <c r="AB12" t="inlineStr"/>
-      <c r="AC12" t="inlineStr"/>
-      <c r="AD12" t="inlineStr"/>
-      <c r="AE12" t="inlineStr"/>
-      <c r="AF12" t="inlineStr"/>
-      <c r="AG12" t="inlineStr"/>
-      <c r="AH12" t="inlineStr"/>
-      <c r="AI12" t="inlineStr"/>
-      <c r="AJ12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="T12" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="U12" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="W12" t="n">
+        <v>45</v>
+      </c>
+      <c r="X12" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>37</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>70</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>600</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1688,36 +1964,96 @@
           <t>Orsomarso</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr"/>
-      <c r="AB13" t="inlineStr"/>
-      <c r="AC13" t="inlineStr"/>
-      <c r="AD13" t="inlineStr"/>
-      <c r="AE13" t="inlineStr"/>
-      <c r="AF13" t="inlineStr"/>
-      <c r="AG13" t="inlineStr"/>
-      <c r="AH13" t="inlineStr"/>
-      <c r="AI13" t="inlineStr"/>
-      <c r="AJ13" t="inlineStr"/>
+      <c r="G13" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="K13" t="n">
+        <v>6</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="T13" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="U13" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="V13" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="W13" t="n">
+        <v>30</v>
+      </c>
+      <c r="X13" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>120</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>35</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1750,36 +2086,84 @@
           <t>Tallinna Kalev</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+      <c r="G14" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="H14" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="I14" t="n">
+        <v>15</v>
+      </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
+      <c r="N14" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="O14" t="n">
+        <v>3.15</v>
+      </c>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
-      <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="inlineStr"/>
-      <c r="AE14" t="inlineStr"/>
-      <c r="AF14" t="inlineStr"/>
-      <c r="AG14" t="inlineStr"/>
-      <c r="AH14" t="inlineStr"/>
-      <c r="AI14" t="inlineStr"/>
-      <c r="AJ14" t="inlineStr"/>
+      <c r="R14" t="n">
+        <v>2</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="T14" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="U14" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="W14" t="n">
+        <v>6</v>
+      </c>
+      <c r="X14" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>120</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>40</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>600</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>175</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1812,36 +2196,88 @@
           <t>Kuressaare</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+      <c r="G15" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.9</v>
+      </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="O15" t="n">
+        <v>2.27</v>
+      </c>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="inlineStr"/>
-      <c r="AC15" t="inlineStr"/>
-      <c r="AD15" t="inlineStr"/>
-      <c r="AE15" t="inlineStr"/>
-      <c r="AF15" t="inlineStr"/>
-      <c r="AG15" t="inlineStr"/>
-      <c r="AH15" t="inlineStr"/>
-      <c r="AI15" t="inlineStr"/>
-      <c r="AJ15" t="inlineStr"/>
+      <c r="R15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="T15" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="U15" t="n">
+        <v>10</v>
+      </c>
+      <c r="V15" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="W15" t="n">
+        <v>17</v>
+      </c>
+      <c r="X15" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>30</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>18</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1874,36 +2310,84 @@
           <t>Harju JK Laagri</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
+      <c r="G16" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I16" t="n">
+        <v>7.4</v>
+      </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
+      <c r="N16" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="O16" t="n">
+        <v>2.55</v>
+      </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="inlineStr"/>
-      <c r="AC16" t="inlineStr"/>
-      <c r="AD16" t="inlineStr"/>
-      <c r="AE16" t="inlineStr"/>
-      <c r="AF16" t="inlineStr"/>
-      <c r="AG16" t="inlineStr"/>
-      <c r="AH16" t="inlineStr"/>
-      <c r="AI16" t="inlineStr"/>
-      <c r="AJ16" t="inlineStr"/>
+      <c r="R16" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T16" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="U16" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="W16" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="X16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>120</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2080,10 +2564,10 @@
         <v>3.75</v>
       </c>
       <c r="N18" t="n">
-        <v>1.93</v>
+        <v>1.84</v>
       </c>
       <c r="O18" t="n">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="P18" t="n">
         <v>1.36</v>
@@ -2181,7 +2665,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="H19" t="n">
         <v>3.4</v>
@@ -2190,13 +2674,13 @@
         <v>2.55</v>
       </c>
       <c r="J19" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K19" t="n">
         <v>11</v>
       </c>
       <c r="L19" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M19" t="n">
         <v>3.75</v>
@@ -2303,16 +2787,16 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="H20" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I20" t="n">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="J20" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K20" t="n">
         <v>9.5</v>
@@ -2321,19 +2805,19 @@
         <v>1.3</v>
       </c>
       <c r="M20" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N20" t="n">
         <v>2.05</v>
       </c>
       <c r="O20" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="P20" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R20" t="n">
         <v>1.87</v>
@@ -2342,13 +2826,13 @@
         <v>1.77</v>
       </c>
       <c r="T20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U20" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="V20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W20" t="n">
         <v>51</v>
@@ -2372,19 +2856,19 @@
         <v>51</v>
       </c>
       <c r="AD20" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE20" t="n">
         <v>6.5</v>
       </c>
       <c r="AF20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG20" t="n">
         <v>8.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI20" t="n">
         <v>15</v>
@@ -2425,25 +2909,25 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="H21" t="n">
         <v>6.25</v>
       </c>
       <c r="I21" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="J21" t="n">
-        <v>21</v>
+        <v>1.02</v>
       </c>
       <c r="K21" t="n">
-        <v>1.03</v>
+        <v>12</v>
       </c>
       <c r="L21" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="M21" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N21" t="n">
         <v>1.5</v>
@@ -2464,13 +2948,13 @@
         <v>1.83</v>
       </c>
       <c r="T21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="U21" t="n">
         <v>34</v>
       </c>
       <c r="V21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="W21" t="n">
         <v>67</v>
@@ -2497,7 +2981,7 @@
         <v>500</v>
       </c>
       <c r="AE21" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF21" t="n">
         <v>7.5</v>
@@ -2547,52 +3031,52 @@
         </is>
       </c>
       <c r="G22" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H22" t="n">
         <v>5.75</v>
       </c>
-      <c r="H22" t="n">
-        <v>6.25</v>
-      </c>
       <c r="I22" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="J22" t="n">
         <v>1.02</v>
       </c>
       <c r="K22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L22" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="M22" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="N22" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="O22" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="P22" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="R22" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S22" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="U22" t="n">
         <v>34</v>
       </c>
       <c r="V22" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="W22" t="n">
         <v>67</v>
@@ -2604,10 +3088,10 @@
         <v>41</v>
       </c>
       <c r="Z22" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AA22" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AB22" t="n">
         <v>21</v>
@@ -2616,25 +3100,25 @@
         <v>51</v>
       </c>
       <c r="AD22" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AE22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF22" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG22" t="n">
         <v>9</v>
       </c>
       <c r="AH22" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI22" t="n">
         <v>11</v>
       </c>
       <c r="AJ22" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23">
@@ -2669,86 +3153,94 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.29</v>
+        <v>2.3</v>
       </c>
       <c r="H23" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I23" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+        <v>2.95</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K23" t="n">
+        <v>7.3</v>
+      </c>
       <c r="L23" t="n">
         <v>1.28</v>
       </c>
       <c r="M23" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="N23" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="O23" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
+        <v>1.88</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.67</v>
+      </c>
       <c r="R23" t="n">
-        <v>1.69</v>
+        <v>1.62</v>
       </c>
       <c r="S23" t="n">
-        <v>2.09</v>
+        <v>2.15</v>
       </c>
       <c r="T23" t="n">
-        <v>6.8</v>
+        <v>8.25</v>
       </c>
       <c r="U23" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="V23" t="n">
         <v>9</v>
       </c>
-      <c r="V23" t="n">
-        <v>7.4</v>
-      </c>
       <c r="W23" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="X23" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Y23" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>350</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI23" t="n">
         <v>24</v>
       </c>
-      <c r="Z23" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>45</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>101</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>22</v>
-      </c>
       <c r="AJ23" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24">
@@ -2782,36 +3274,96 @@
           <t>Zeleznicar Pancevo</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr"/>
-      <c r="Z24" t="inlineStr"/>
-      <c r="AA24" t="inlineStr"/>
-      <c r="AB24" t="inlineStr"/>
-      <c r="AC24" t="inlineStr"/>
-      <c r="AD24" t="inlineStr"/>
-      <c r="AE24" t="inlineStr"/>
-      <c r="AF24" t="inlineStr"/>
-      <c r="AG24" t="inlineStr"/>
-      <c r="AH24" t="inlineStr"/>
-      <c r="AI24" t="inlineStr"/>
-      <c r="AJ24" t="inlineStr"/>
+      <c r="G24" t="n">
+        <v>3</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="K24" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="T24" t="n">
+        <v>8</v>
+      </c>
+      <c r="U24" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="W24" t="n">
+        <v>37</v>
+      </c>
+      <c r="X24" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>75</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>700</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2025-04-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ24"/>
+  <dimension ref="A1:AJ29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -656,16 +656,16 @@
         <v>3.9</v>
       </c>
       <c r="J2" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K2" t="n">
         <v>19</v>
       </c>
       <c r="L2" t="n">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="M2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N2" t="n">
         <v>1.5</v>
@@ -769,22 +769,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>7</v>
+        <v>6.25</v>
       </c>
       <c r="H3" t="n">
         <v>5.75</v>
       </c>
       <c r="I3" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="J3" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K3" t="n">
         <v>21</v>
       </c>
       <c r="L3" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="M3" t="n">
         <v>6</v>
@@ -808,10 +808,10 @@
         <v>2.2</v>
       </c>
       <c r="T3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="U3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="V3" t="n">
         <v>19</v>
@@ -823,10 +823,10 @@
         <v>41</v>
       </c>
       <c r="Y3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA3" t="n">
         <v>11</v>
@@ -853,7 +853,7 @@
         <v>11</v>
       </c>
       <c r="AI3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ3" t="n">
         <v>19</v>
@@ -900,13 +900,13 @@
         <v>4.75</v>
       </c>
       <c r="J4" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K4" t="n">
         <v>9</v>
       </c>
       <c r="L4" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M4" t="n">
         <v>3.2</v>
@@ -924,13 +924,13 @@
         <v>2.63</v>
       </c>
       <c r="R4" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S4" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U4" t="n">
         <v>8</v>
@@ -939,10 +939,10 @@
         <v>8.5</v>
       </c>
       <c r="W4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y4" t="n">
         <v>29</v>
@@ -1022,13 +1022,13 @@
         <v>13</v>
       </c>
       <c r="J5" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K5" t="n">
         <v>19</v>
       </c>
       <c r="L5" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="M5" t="n">
         <v>5.5</v>
@@ -1061,7 +1061,7 @@
         <v>9.5</v>
       </c>
       <c r="W5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X5" t="n">
         <v>11</v>
@@ -1082,7 +1082,7 @@
         <v>67</v>
       </c>
       <c r="AD5" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE5" t="n">
         <v>26</v>
@@ -1106,7 +1106,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CKgegK5M</t>
+          <t>YVRmQaEG</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1116,38 +1116,38 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Argentinos Jrs</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Barracas Central</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="H6" t="n">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="I6" t="n">
-        <v>4.33</v>
+        <v>8</v>
       </c>
       <c r="J6" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L6" t="n">
         <v>1.4</v>
@@ -1156,10 +1156,10 @@
         <v>2.75</v>
       </c>
       <c r="N6" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="O6" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P6" t="n">
         <v>1.5</v>
@@ -1168,67 +1168,67 @@
         <v>2.5</v>
       </c>
       <c r="R6" t="n">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="S6" t="n">
-        <v>1.73</v>
+        <v>1.53</v>
       </c>
       <c r="T6" t="n">
+        <v>5</v>
+      </c>
+      <c r="U6" t="n">
         <v>6</v>
-      </c>
-      <c r="U6" t="n">
-        <v>8</v>
       </c>
       <c r="V6" t="n">
         <v>9</v>
       </c>
       <c r="W6" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="X6" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="Y6" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF6" t="n">
         <v>34</v>
       </c>
-      <c r="Z6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC6" t="n">
+      <c r="AG6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>101</v>
+      </c>
+      <c r="AI6" t="n">
         <v>67</v>
       </c>
-      <c r="AD6" t="n">
-        <v>351</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>41</v>
-      </c>
       <c r="AJ6" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CdHGbFs2</t>
+          <t>hYskOwqT</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1238,119 +1238,119 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Volta Redonda</t>
+          <t>Tigre</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Ferroviaria</t>
+          <t>Belgrano</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="I7" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="J7" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L7" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M7" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N7" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="O7" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="P7" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R7" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="S7" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="T7" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U7" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="V7" t="n">
         <v>9.5</v>
       </c>
       <c r="W7" t="n">
+        <v>17</v>
+      </c>
+      <c r="X7" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB7" t="n">
         <v>21</v>
       </c>
-      <c r="X7" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>17</v>
-      </c>
       <c r="AC7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD7" t="n">
-        <v>351</v>
+        <v>501</v>
       </c>
       <c r="AE7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH7" t="n">
         <v>41</v>
       </c>
       <c r="AI7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>fkxd9Vbm</t>
+          <t>hC6EB0aN</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1360,115 +1360,119 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>04:00</t>
+          <t>21:15</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CHINA - JIA LEAGUE</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Yanbian Longding</t>
+          <t>Ind. Rivadavia</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Dalian K'un City</t>
+          <t>Aldosivi</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.2</v>
+        <v>1.9</v>
       </c>
       <c r="H8" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I8" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>7</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R8" t="n">
         <v>2.2</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M8" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.72</v>
-      </c>
       <c r="S8" t="n">
-        <v>1.88</v>
+        <v>1.62</v>
       </c>
       <c r="T8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="V8" t="n">
         <v>9.5</v>
       </c>
-      <c r="U8" t="n">
+      <c r="W8" t="n">
+        <v>15</v>
+      </c>
+      <c r="X8" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>451</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG8" t="n">
         <v>17</v>
       </c>
-      <c r="V8" t="n">
-        <v>11</v>
-      </c>
-      <c r="W8" t="n">
-        <v>45</v>
-      </c>
-      <c r="X8" t="n">
-        <v>28</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>65</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>500</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>9</v>
-      </c>
       <c r="AH8" t="n">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="AI8" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AJ8" t="n">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>M1TC5mbC</t>
+          <t>zazvNj2e</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1478,115 +1482,119 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>04:30</t>
+          <t>17:10</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>CHINA - JIA LEAGUE</t>
+          <t>ARGENTINA - PRIMERA NACIONAL</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Shaanxi Union</t>
+          <t>Def. de Belgrano</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Nanjing City</t>
+          <t>Temperley</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.27</v>
+        <v>2.38</v>
       </c>
       <c r="H9" t="n">
-        <v>3.05</v>
+        <v>2.75</v>
       </c>
       <c r="I9" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>3.5</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="K9" t="n">
+        <v>5</v>
+      </c>
       <c r="L9" t="n">
-        <v>1.35</v>
+        <v>1.8</v>
       </c>
       <c r="M9" t="n">
-        <v>2.7</v>
+        <v>1.91</v>
       </c>
       <c r="N9" t="n">
-        <v>2.02</v>
+        <v>3.6</v>
       </c>
       <c r="O9" t="n">
-        <v>1.62</v>
+        <v>1.29</v>
       </c>
       <c r="P9" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.52</v>
+        <v>2</v>
       </c>
       <c r="R9" t="n">
-        <v>1.78</v>
+        <v>2.63</v>
       </c>
       <c r="S9" t="n">
-        <v>1.83</v>
+        <v>1.44</v>
       </c>
       <c r="T9" t="n">
-        <v>6.9</v>
+        <v>5</v>
       </c>
       <c r="U9" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="V9" t="n">
-        <v>9.25</v>
+        <v>12</v>
       </c>
       <c r="W9" t="n">
         <v>23</v>
       </c>
       <c r="X9" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="Y9" t="n">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="Z9" t="n">
-        <v>8.25</v>
+        <v>4.75</v>
       </c>
       <c r="AA9" t="n">
         <v>6</v>
       </c>
       <c r="AB9" t="n">
-        <v>14.5</v>
+        <v>26</v>
       </c>
       <c r="AC9" t="n">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="AD9" t="n">
-        <v>600</v>
+        <v>101</v>
       </c>
       <c r="AE9" t="n">
-        <v>8.75</v>
+        <v>6.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AH9" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AI9" t="n">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="AJ9" t="n">
-        <v>37</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0nu479Ta</t>
+          <t>IqgYFZfS</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1596,111 +1604,119 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>21:10</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>CHINA - JIA LEAGUE</t>
+          <t>ARGENTINA - PRIMERA NACIONAL</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Liaoning Tieren</t>
+          <t>Ferro</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Shenzhen Juniors</t>
+          <t>Atletico Atlanta</t>
         </is>
       </c>
       <c r="G10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="K10" t="n">
+        <v>5</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O10" t="n">
         <v>1.33</v>
       </c>
-      <c r="H10" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="I10" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M10" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="N10" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="P10" t="n">
         <v>1.75</v>
       </c>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
+      <c r="Q10" t="n">
+        <v>2.05</v>
+      </c>
       <c r="R10" t="n">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="S10" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="T10" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="U10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>11</v>
+      </c>
+      <c r="W10" t="n">
+        <v>21</v>
+      </c>
+      <c r="X10" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>51</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AA10" t="n">
         <v>5.5</v>
       </c>
-      <c r="V10" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="W10" t="n">
-        <v>8</v>
-      </c>
-      <c r="X10" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>8.25</v>
-      </c>
       <c r="AB10" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AC10" t="n">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="AD10" t="n">
         <v>101</v>
       </c>
       <c r="AE10" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="AF10" t="n">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="AG10" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="AH10" t="n">
-        <v>500</v>
+        <v>41</v>
       </c>
       <c r="AI10" t="n">
-        <v>200</v>
+        <v>41</v>
       </c>
       <c r="AJ10" t="n">
-        <v>150</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>URWK3RSO</t>
+          <t>CKgegK5M</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1710,115 +1726,119 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>CHINA - JIA LEAGUE</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Qingdao Red Lions</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.22</v>
+        <v>1.95</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I11" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>4.33</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>7</v>
+      </c>
       <c r="L11" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M11" t="n">
-        <v>2.42</v>
+        <v>2.75</v>
       </c>
       <c r="N11" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="O11" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P11" t="n">
         <v>1.5</v>
       </c>
-      <c r="P11" t="n">
-        <v>1.47</v>
-      </c>
       <c r="Q11" t="n">
-        <v>2.32</v>
+        <v>2.5</v>
       </c>
       <c r="R11" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="S11" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="T11" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="U11" t="n">
-        <v>9.75</v>
+        <v>8</v>
       </c>
       <c r="V11" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="W11" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="X11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y11" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="Z11" t="n">
         <v>7</v>
       </c>
       <c r="AA11" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AB11" t="n">
         <v>17</v>
       </c>
       <c r="AC11" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="AD11" t="n">
-        <v>700</v>
+        <v>351</v>
       </c>
       <c r="AE11" t="n">
-        <v>7.8</v>
+        <v>10</v>
       </c>
       <c r="AF11" t="n">
-        <v>15.5</v>
+        <v>21</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AH11" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AI11" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="AJ11" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>8h2VNUDt</t>
+          <t>CdHGbFs2</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1828,115 +1848,119 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>CHINA - JIA LEAGUE</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Nantong Zhiyun</t>
+          <t>Volta Redonda</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Chongqing Tonglianglong</t>
+          <t>Ferroviaria</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.3</v>
+        <v>2.15</v>
       </c>
       <c r="H12" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>3.75</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="K12" t="n">
+        <v>6.5</v>
+      </c>
       <c r="L12" t="n">
-        <v>1.32</v>
+        <v>1.44</v>
       </c>
       <c r="M12" t="n">
-        <v>2.85</v>
+        <v>2.63</v>
       </c>
       <c r="N12" t="n">
-        <v>1.93</v>
+        <v>2.4</v>
       </c>
       <c r="O12" t="n">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="P12" t="n">
-        <v>1.42</v>
+        <v>1.53</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.65</v>
+        <v>2.38</v>
       </c>
       <c r="R12" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S12" t="n">
-        <v>1.87</v>
+        <v>1.73</v>
       </c>
       <c r="T12" t="n">
-        <v>9.75</v>
+        <v>6</v>
       </c>
       <c r="U12" t="n">
-        <v>17.5</v>
+        <v>9.5</v>
       </c>
       <c r="V12" t="n">
-        <v>11.5</v>
+        <v>9.5</v>
       </c>
       <c r="W12" t="n">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="X12" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="Y12" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="Z12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>351</v>
+      </c>
+      <c r="AE12" t="n">
         <v>9</v>
       </c>
-      <c r="AA12" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>70</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>600</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>7.1</v>
-      </c>
       <c r="AF12" t="n">
-        <v>9.75</v>
+        <v>17</v>
       </c>
       <c r="AG12" t="n">
-        <v>8.75</v>
+        <v>13</v>
       </c>
       <c r="AH12" t="n">
-        <v>19.5</v>
+        <v>41</v>
       </c>
       <c r="AI12" t="n">
-        <v>17.5</v>
+        <v>34</v>
       </c>
       <c r="AJ12" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SQrWxrCc</t>
+          <t>fkxd9Vbm</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1946,119 +1970,115 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>04:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA B</t>
+          <t>CHINA - JIA LEAGUE</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Boca Juniors</t>
+          <t>Yanbian Longding</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Orsomarso</t>
+          <t>Dalian K'un City</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.62</v>
+        <v>3.35</v>
       </c>
       <c r="H13" t="n">
-        <v>2.87</v>
+        <v>3.05</v>
       </c>
       <c r="I13" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="K13" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="T13" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="U13" t="n">
+        <v>18</v>
+      </c>
+      <c r="V13" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="W13" t="n">
+        <v>50</v>
+      </c>
+      <c r="X13" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AA13" t="n">
         <v>6</v>
       </c>
-      <c r="L13" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="M13" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="N13" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R13" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="T13" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="U13" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="V13" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="W13" t="n">
-        <v>30</v>
-      </c>
-      <c r="X13" t="n">
-        <v>28</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>5.8</v>
-      </c>
       <c r="AB13" t="n">
-        <v>18.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="AD13" t="n">
-        <v>101</v>
+        <v>600</v>
       </c>
       <c r="AE13" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AF13" t="n">
-        <v>12.5</v>
+        <v>9.75</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>8.75</v>
       </c>
       <c r="AH13" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="AI13" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="AJ13" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>p8duUtN0</t>
+          <t>M1TC5mbC</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2068,107 +2088,115 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>04:30</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ESTONIA - MEISTRILIIGA</t>
+          <t>CHINA - JIA LEAGUE</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Kalju</t>
+          <t>Shaanxi Union</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tallinna Kalev</t>
+          <t>Nanjing City</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.13</v>
+        <v>2.45</v>
       </c>
       <c r="H14" t="n">
-        <v>6.3</v>
+        <v>3.1</v>
       </c>
       <c r="I14" t="n">
-        <v>15</v>
+        <v>2.8</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2.67</v>
+      </c>
       <c r="N14" t="n">
-        <v>1.31</v>
+        <v>2.05</v>
       </c>
       <c r="O14" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
+        <v>1.62</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.47</v>
+      </c>
       <c r="R14" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="S14" t="n">
-        <v>1.73</v>
+        <v>1.82</v>
       </c>
       <c r="T14" t="n">
-        <v>8.75</v>
+        <v>7.2</v>
       </c>
       <c r="U14" t="n">
-        <v>6.1</v>
+        <v>11.5</v>
       </c>
       <c r="V14" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="W14" t="n">
+        <v>26</v>
+      </c>
+      <c r="X14" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AA14" t="n">
         <v>6</v>
       </c>
-      <c r="X14" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>13</v>
-      </c>
       <c r="AB14" t="n">
-        <v>24</v>
+        <v>14.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AD14" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="AE14" t="n">
-        <v>40</v>
+        <v>8.25</v>
       </c>
       <c r="AF14" t="n">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="AG14" t="n">
-        <v>40</v>
+        <v>10.25</v>
       </c>
       <c r="AH14" t="n">
-        <v>600</v>
+        <v>32</v>
       </c>
       <c r="AI14" t="n">
-        <v>175</v>
+        <v>25</v>
       </c>
       <c r="AJ14" t="n">
-        <v>110</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>lt3WV2hl</t>
+          <t>0nu479Ta</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2178,111 +2206,115 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ESTONIA - MEISTRILIIGA</t>
+          <t>CHINA - JIA LEAGUE</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Tammeka</t>
+          <t>Liaoning Tieren</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Kuressaare</t>
+          <t>Shenzhen Juniors</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.13</v>
+        <v>1.39</v>
       </c>
       <c r="H15" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="I15" t="n">
-        <v>2.9</v>
+        <v>9.5</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="M15" t="n">
-        <v>4.4</v>
+        <v>2.9</v>
       </c>
       <c r="N15" t="n">
-        <v>1.56</v>
+        <v>1.9</v>
       </c>
       <c r="O15" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
+        <v>1.72</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.47</v>
+      </c>
       <c r="R15" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="S15" t="n">
-        <v>2.41</v>
+        <v>1.57</v>
       </c>
       <c r="T15" t="n">
-        <v>8.800000000000001</v>
+        <v>5.4</v>
       </c>
       <c r="U15" t="n">
-        <v>10</v>
+        <v>5.8</v>
       </c>
       <c r="V15" t="n">
-        <v>7.2</v>
+        <v>8.25</v>
       </c>
       <c r="W15" t="n">
-        <v>17</v>
+        <v>8.75</v>
       </c>
       <c r="X15" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="Z15" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>5.6</v>
+        <v>7.8</v>
       </c>
       <c r="AB15" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="AC15" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="AD15" t="n">
         <v>101</v>
       </c>
       <c r="AE15" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AF15" t="n">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="AG15" t="n">
-        <v>8.6</v>
+        <v>30</v>
       </c>
       <c r="AH15" t="n">
-        <v>30</v>
+        <v>350</v>
       </c>
       <c r="AI15" t="n">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="AJ15" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>hYamSKiD</t>
+          <t>URWK3RSO</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2292,98 +2324,106 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ESTONIA - MEISTRILIIGA</t>
+          <t>CHINA - JIA LEAGUE</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Flora</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Harju JK Laagri</t>
+          <t>Qingdao Red Lions</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.31</v>
+        <v>2.42</v>
       </c>
       <c r="H16" t="n">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="I16" t="n">
-        <v>7.4</v>
+        <v>3</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2.35</v>
+      </c>
       <c r="N16" t="n">
-        <v>1.46</v>
+        <v>2.35</v>
       </c>
       <c r="O16" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
+        <v>1.47</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.25</v>
+      </c>
       <c r="R16" t="n">
-        <v>1.77</v>
+        <v>1.98</v>
       </c>
       <c r="S16" t="n">
-        <v>1.95</v>
+        <v>1.65</v>
       </c>
       <c r="T16" t="n">
-        <v>7.7</v>
+        <v>6.1</v>
       </c>
       <c r="U16" t="n">
-        <v>6.4</v>
+        <v>10.5</v>
       </c>
       <c r="V16" t="n">
-        <v>7.3</v>
+        <v>10</v>
       </c>
       <c r="W16" t="n">
-        <v>7.6</v>
+        <v>26</v>
       </c>
       <c r="X16" t="n">
-        <v>8.5</v>
+        <v>25</v>
       </c>
       <c r="Y16" t="n">
-        <v>17.5</v>
+        <v>45</v>
       </c>
       <c r="Z16" t="n">
-        <v>16.5</v>
+        <v>6.6</v>
       </c>
       <c r="AA16" t="n">
-        <v>8.75</v>
+        <v>5.7</v>
       </c>
       <c r="AB16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC16" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AD16" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="AE16" t="n">
-        <v>21</v>
+        <v>7.4</v>
       </c>
       <c r="AF16" t="n">
-        <v>45</v>
+        <v>14.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>19</v>
+        <v>11.25</v>
       </c>
       <c r="AH16" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="AI16" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AJ16" t="n">
         <v>45</v>
@@ -2392,7 +2432,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>lCH69Z5M</t>
+          <t>8h2VNUDt</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2402,119 +2442,115 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>FINLAND - VEIKKAUSLIIGA</t>
+          <t>CHINA - JIA LEAGUE</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>HJK</t>
+          <t>Nantong Zhiyun</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Gnistan</t>
+          <t>Chongqing Tonglianglong</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.45</v>
+        <v>3.35</v>
       </c>
       <c r="H17" t="n">
-        <v>4.33</v>
+        <v>3.15</v>
       </c>
       <c r="I17" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K17" t="n">
-        <v>15</v>
-      </c>
+        <v>2.12</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>1.18</v>
+        <v>1.34</v>
       </c>
       <c r="M17" t="n">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="N17" t="n">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="O17" t="n">
-        <v>2.25</v>
+        <v>1.65</v>
       </c>
       <c r="P17" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="Q17" t="n">
-        <v>3.4</v>
+        <v>2.52</v>
       </c>
       <c r="R17" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="S17" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="T17" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="U17" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="W17" t="n">
+        <v>45</v>
+      </c>
+      <c r="X17" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z17" t="n">
         <v>8.5</v>
       </c>
-      <c r="U17" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="V17" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="W17" t="n">
-        <v>10</v>
-      </c>
-      <c r="X17" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>13</v>
-      </c>
       <c r="AA17" t="n">
-        <v>8</v>
+        <v>6.1</v>
       </c>
       <c r="AB17" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="AD17" t="n">
-        <v>201</v>
+        <v>600</v>
       </c>
       <c r="AE17" t="n">
-        <v>21</v>
+        <v>6.8</v>
       </c>
       <c r="AF17" t="n">
-        <v>41</v>
+        <v>9.75</v>
       </c>
       <c r="AG17" t="n">
-        <v>21</v>
+        <v>8.75</v>
       </c>
       <c r="AH17" t="n">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AI17" t="n">
-        <v>51</v>
+        <v>18.5</v>
       </c>
       <c r="AJ17" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>61XB1IYa</t>
+          <t>SQrWxrCc</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2524,119 +2560,119 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>IRELAND - PREMIER DIVISION</t>
+          <t>COLOMBIA - PRIMERA B</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Derry City</t>
+          <t>Boca Juniors</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Sligo Rovers</t>
+          <t>Orsomarso</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.48</v>
+        <v>2.62</v>
       </c>
       <c r="H18" t="n">
-        <v>3.5</v>
+        <v>2.87</v>
       </c>
       <c r="I18" t="n">
-        <v>7</v>
+        <v>2.77</v>
       </c>
       <c r="J18" t="n">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="K18" t="n">
+        <v>6</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="T18" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="U18" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="V18" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="W18" t="n">
+        <v>30</v>
+      </c>
+      <c r="X18" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>120</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG18" t="n">
         <v>11</v>
       </c>
-      <c r="L18" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M18" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="N18" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>3</v>
-      </c>
-      <c r="R18" t="n">
-        <v>2</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="T18" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="U18" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="V18" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="W18" t="n">
-        <v>10</v>
-      </c>
-      <c r="X18" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>351</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>23</v>
-      </c>
       <c r="AH18" t="n">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="AI18" t="n">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="AJ18" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>McoIDdiS</t>
+          <t>p8duUtN0</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2646,119 +2682,107 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>ESTONIA - MEISTRILIIGA</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Stal Mielec</t>
+          <t>Kalju</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Gornik Zabrze</t>
+          <t>Tallinna Kalev</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.62</v>
+        <v>1.13</v>
       </c>
       <c r="H19" t="n">
-        <v>3.4</v>
+        <v>6.3</v>
       </c>
       <c r="I19" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K19" t="n">
-        <v>11</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M19" t="n">
-        <v>3.75</v>
-      </c>
+        <v>14.5</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
       <c r="N19" t="n">
-        <v>1.88</v>
+        <v>1.31</v>
       </c>
       <c r="O19" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="n">
         <v>1.98</v>
       </c>
-      <c r="P19" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.67</v>
-      </c>
       <c r="S19" t="n">
-        <v>2.05</v>
+        <v>1.74</v>
       </c>
       <c r="T19" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="U19" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="W19" t="n">
+        <v>6</v>
+      </c>
+      <c r="X19" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA19" t="n">
         <v>13</v>
       </c>
-      <c r="V19" t="n">
-        <v>10</v>
-      </c>
-      <c r="W19" t="n">
-        <v>26</v>
-      </c>
-      <c r="X19" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AB19" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AC19" t="n">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="AD19" t="n">
-        <v>201</v>
+        <v>450</v>
       </c>
       <c r="AE19" t="n">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="AF19" t="n">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="AG19" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="AH19" t="n">
-        <v>26</v>
+        <v>500</v>
       </c>
       <c r="AI19" t="n">
-        <v>21</v>
+        <v>150</v>
       </c>
       <c r="AJ19" t="n">
-        <v>29</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>l6SssTG5</t>
+          <t>lt3WV2hl</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2768,119 +2792,111 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>ESTONIA - MEISTRILIIGA</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Kotwica Kolobrzeg</t>
+          <t>Tammeka</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Ruch Chorzow</t>
+          <t>Kuressaare</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>4.2</v>
+        <v>2.02</v>
       </c>
       <c r="H20" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I20" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K20" t="n">
-        <v>9.5</v>
-      </c>
+        <v>3.15</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="M20" t="n">
-        <v>3.25</v>
+        <v>4.3</v>
       </c>
       <c r="N20" t="n">
-        <v>2.05</v>
+        <v>1.65</v>
       </c>
       <c r="O20" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2.63</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
-        <v>1.87</v>
+        <v>1.54</v>
       </c>
       <c r="S20" t="n">
-        <v>1.77</v>
+        <v>2.33</v>
       </c>
       <c r="T20" t="n">
-        <v>11</v>
+        <v>7.6</v>
       </c>
       <c r="U20" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="V20" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="W20" t="n">
+        <v>16</v>
+      </c>
+      <c r="X20" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>32</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>175</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AJ20" t="n">
         <v>21</v>
-      </c>
-      <c r="V20" t="n">
-        <v>15</v>
-      </c>
-      <c r="W20" t="n">
-        <v>51</v>
-      </c>
-      <c r="X20" t="n">
-        <v>41</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>301</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>tQtC1Ixg</t>
+          <t>hYamSKiD</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2890,119 +2906,107 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>13:05</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>ESTONIA - MEISTRILIIGA</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Damac</t>
+          <t>Flora</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Harju JK Laagri</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>5.75</v>
+        <v>1.31</v>
       </c>
       <c r="H21" t="n">
-        <v>6.25</v>
+        <v>4.75</v>
       </c>
       <c r="I21" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K21" t="n">
-        <v>12</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="M21" t="n">
-        <v>5</v>
-      </c>
+        <v>7.4</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
       <c r="N21" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="O21" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>3.5</v>
-      </c>
+        <v>2.6</v>
+      </c>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
       <c r="R21" t="n">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="S21" t="n">
-        <v>1.83</v>
+        <v>1.98</v>
       </c>
       <c r="T21" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="U21" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="W21" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="X21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG21" t="n">
         <v>19</v>
       </c>
-      <c r="U21" t="n">
-        <v>34</v>
-      </c>
-      <c r="V21" t="n">
-        <v>19</v>
-      </c>
-      <c r="W21" t="n">
-        <v>67</v>
-      </c>
-      <c r="X21" t="n">
-        <v>41</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>500</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>9</v>
-      </c>
       <c r="AH21" t="n">
-        <v>9.5</v>
+        <v>120</v>
       </c>
       <c r="AI21" t="n">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="AJ21" t="n">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>EwuKad75</t>
+          <t>lCH69Z5M</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3012,119 +3016,119 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>13:20</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>FINLAND - VEIKKAUSLIIGA</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Al Wehda</t>
+          <t>HJK</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Al Ahli SC</t>
+          <t>Gnistan</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>5.5</v>
+        <v>1.45</v>
       </c>
       <c r="H22" t="n">
-        <v>5.75</v>
+        <v>4.33</v>
       </c>
       <c r="I22" t="n">
-        <v>1.4</v>
+        <v>7.5</v>
       </c>
       <c r="J22" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K22" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L22" t="n">
         <v>1.17</v>
       </c>
       <c r="M22" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N22" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="O22" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="P22" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R22" t="n">
         <v>1.8</v>
       </c>
       <c r="S22" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="T22" t="n">
-        <v>19</v>
+        <v>8.5</v>
       </c>
       <c r="U22" t="n">
-        <v>34</v>
+        <v>7.5</v>
       </c>
       <c r="V22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W22" t="n">
+        <v>10</v>
+      </c>
+      <c r="X22" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB22" t="n">
         <v>17</v>
-      </c>
-      <c r="W22" t="n">
-        <v>67</v>
-      </c>
-      <c r="X22" t="n">
-        <v>41</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>21</v>
       </c>
       <c r="AC22" t="n">
         <v>51</v>
       </c>
       <c r="AD22" t="n">
-        <v>500</v>
+        <v>201</v>
       </c>
       <c r="AE22" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="AF22" t="n">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="AG22" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="AH22" t="n">
-        <v>9.5</v>
+        <v>81</v>
       </c>
       <c r="AI22" t="n">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="AJ22" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CCTclxee</t>
+          <t>61XB1IYa</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3134,119 +3138,119 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>IRELAND - PREMIER DIVISION</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Radnicki Nis</t>
+          <t>Derry City</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>IMT Novi Beograd</t>
+          <t>Sligo Rovers</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.3</v>
+        <v>1.48</v>
       </c>
       <c r="H23" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="I23" t="n">
-        <v>2.95</v>
+        <v>7</v>
       </c>
       <c r="J23" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K23" t="n">
-        <v>7.3</v>
+        <v>11</v>
       </c>
       <c r="L23" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="M23" t="n">
-        <v>3.35</v>
+        <v>3.75</v>
       </c>
       <c r="N23" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="O23" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="P23" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.67</v>
+        <v>3</v>
       </c>
       <c r="R23" t="n">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="S23" t="n">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="T23" t="n">
-        <v>8.25</v>
+        <v>6.5</v>
       </c>
       <c r="U23" t="n">
-        <v>11.75</v>
+        <v>6.5</v>
       </c>
       <c r="V23" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W23" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="X23" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>351</v>
+      </c>
+      <c r="AE23" t="n">
         <v>19</v>
       </c>
-      <c r="Y23" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>50</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>350</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>10.75</v>
-      </c>
       <c r="AF23" t="n">
-        <v>17.5</v>
+        <v>41</v>
       </c>
       <c r="AG23" t="n">
-        <v>10.25</v>
+        <v>23</v>
       </c>
       <c r="AH23" t="n">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AI23" t="n">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="AJ23" t="n">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>KElJeK2L</t>
+          <t>McoIDdiS</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3256,113 +3260,723 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Tekstilac Odzaci</t>
+          <t>Stal Mielec</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Zeleznicar Pancevo</t>
+          <t>Gornik Zabrze</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="I24" t="n">
-        <v>2.42</v>
+        <v>2.55</v>
       </c>
       <c r="J24" t="n">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="K24" t="n">
-        <v>6.2</v>
+        <v>11</v>
       </c>
       <c r="L24" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="P24" t="n">
         <v>1.4</v>
       </c>
-      <c r="M24" t="n">
+      <c r="Q24" t="n">
         <v>2.75</v>
       </c>
-      <c r="N24" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P24" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2.55</v>
-      </c>
       <c r="R24" t="n">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="S24" t="n">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T24" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="U24" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="V24" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="W24" t="n">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="X24" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="Y24" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="Z24" t="n">
-        <v>6.2</v>
+        <v>11</v>
       </c>
       <c r="AA24" t="n">
-        <v>5.8</v>
+        <v>6.5</v>
       </c>
       <c r="AB24" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AC24" t="n">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="AD24" t="n">
-        <v>700</v>
+        <v>201</v>
       </c>
       <c r="AE24" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AF24" t="n">
-        <v>11.25</v>
+        <v>13</v>
       </c>
       <c r="AG24" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="AH24" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI24" t="n">
         <v>21</v>
       </c>
       <c r="AJ24" t="n">
-        <v>35</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>l6SssTG5</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>POLAND - DIVISION 1</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Kotwica Kolobrzeg</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Ruch Chorzow</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K25" t="n">
+        <v>10</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="N25" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T25" t="n">
+        <v>11</v>
+      </c>
+      <c r="U25" t="n">
+        <v>21</v>
+      </c>
+      <c r="V25" t="n">
+        <v>15</v>
+      </c>
+      <c r="W25" t="n">
+        <v>51</v>
+      </c>
+      <c r="X25" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>301</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>tQtC1Ixg</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>13:05</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Damac</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Al Nassr</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="H26" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K26" t="n">
+        <v>12</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O26" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T26" t="n">
+        <v>19</v>
+      </c>
+      <c r="U26" t="n">
+        <v>34</v>
+      </c>
+      <c r="V26" t="n">
+        <v>19</v>
+      </c>
+      <c r="W26" t="n">
+        <v>67</v>
+      </c>
+      <c r="X26" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>EwuKad75</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>13:20</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Al Wehda</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Al Ahli SC</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>6</v>
+      </c>
+      <c r="H27" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="J27" t="n">
+        <v>19</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="O27" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T27" t="n">
+        <v>19</v>
+      </c>
+      <c r="U27" t="n">
+        <v>34</v>
+      </c>
+      <c r="V27" t="n">
+        <v>19</v>
+      </c>
+      <c r="W27" t="n">
+        <v>67</v>
+      </c>
+      <c r="X27" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>CCTclxee</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>SERBIA - SUPER LIGA</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Radnicki Nis</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>IMT Novi Beograd</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K28" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S28" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="T28" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="U28" t="n">
+        <v>13</v>
+      </c>
+      <c r="V28" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="W28" t="n">
+        <v>26</v>
+      </c>
+      <c r="X28" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>45</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>KElJeK2L</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>SERBIA - SUPER LIGA</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Tekstilac Odzaci</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Zeleznicar Pancevo</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K29" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="N29" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T29" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="U29" t="n">
+        <v>19</v>
+      </c>
+      <c r="V29" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="W29" t="n">
+        <v>55</v>
+      </c>
+      <c r="X29" t="n">
+        <v>37</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>45</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>800</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-04-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-22.xlsx
@@ -662,10 +662,10 @@
         <v>19</v>
       </c>
       <c r="L2" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N2" t="n">
         <v>1.5</v>
@@ -790,10 +790,10 @@
         <v>6</v>
       </c>
       <c r="N3" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="O3" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="P3" t="n">
         <v>1.22</v>
@@ -802,16 +802,16 @@
         <v>4</v>
       </c>
       <c r="R3" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T3" t="n">
         <v>21</v>
       </c>
       <c r="U3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="V3" t="n">
         <v>19</v>
@@ -823,7 +823,7 @@
         <v>41</v>
       </c>
       <c r="Y3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z3" t="n">
         <v>23</v>
@@ -841,10 +841,10 @@
         <v>151</v>
       </c>
       <c r="AE3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AG3" t="n">
         <v>8.5</v>
@@ -853,7 +853,7 @@
         <v>11</v>
       </c>
       <c r="AI3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ3" t="n">
         <v>19</v>
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H4" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J4" t="n">
         <v>1.07</v>
@@ -912,10 +912,10 @@
         <v>3.2</v>
       </c>
       <c r="N4" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O4" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="P4" t="n">
         <v>1.44</v>
@@ -924,13 +924,13 @@
         <v>2.63</v>
       </c>
       <c r="R4" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S4" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U4" t="n">
         <v>8</v>
@@ -960,13 +960,13 @@
         <v>51</v>
       </c>
       <c r="AD4" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AE4" t="n">
         <v>11</v>
       </c>
       <c r="AF4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG4" t="n">
         <v>15</v>
@@ -1025,7 +1025,7 @@
         <v>1.02</v>
       </c>
       <c r="K5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L5" t="n">
         <v>1.14</v>
@@ -1052,31 +1052,31 @@
         <v>1.8</v>
       </c>
       <c r="T5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U5" t="n">
         <v>7</v>
       </c>
       <c r="V5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X5" t="n">
         <v>11</v>
       </c>
       <c r="Y5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA5" t="n">
         <v>13</v>
       </c>
       <c r="AB5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC5" t="n">
         <v>67</v>
@@ -1091,7 +1091,7 @@
         <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH5" t="n">
         <v>126</v>
@@ -1216,7 +1216,7 @@
         <v>23</v>
       </c>
       <c r="AH6" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AI6" t="n">
         <v>67</v>
@@ -1379,13 +1379,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H8" t="n">
         <v>3.25</v>
       </c>
       <c r="I8" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J8" t="n">
         <v>1.1</v>
@@ -1412,22 +1412,22 @@
         <v>2.38</v>
       </c>
       <c r="R8" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S8" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T8" t="n">
         <v>5.5</v>
       </c>
       <c r="U8" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X8" t="n">
         <v>19</v>
@@ -1436,16 +1436,16 @@
         <v>41</v>
       </c>
       <c r="Z8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA8" t="n">
         <v>6.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC8" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD8" t="n">
         <v>451</v>
@@ -1457,7 +1457,7 @@
         <v>21</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH8" t="n">
         <v>51</v>
@@ -1501,13 +1501,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="H9" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="I9" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J9" t="n">
         <v>1.17</v>
@@ -1516,22 +1516,22 @@
         <v>5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="M9" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="N9" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="O9" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="P9" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="R9" t="n">
         <v>2.63</v>
@@ -1543,25 +1543,25 @@
         <v>5</v>
       </c>
       <c r="U9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y9" t="n">
         <v>51</v>
       </c>
       <c r="Z9" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AA9" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB9" t="n">
         <v>26</v>
@@ -1588,7 +1588,7 @@
         <v>41</v>
       </c>
       <c r="AJ9" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10">
@@ -1623,13 +1623,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H10" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="I10" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J10" t="n">
         <v>1.17</v>
@@ -1650,10 +1650,10 @@
         <v>1.33</v>
       </c>
       <c r="P10" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R10" t="n">
         <v>2.5</v>
@@ -1671,10 +1671,10 @@
         <v>11</v>
       </c>
       <c r="W10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y10" t="n">
         <v>51</v>
@@ -1704,7 +1704,7 @@
         <v>17</v>
       </c>
       <c r="AH10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI10" t="n">
         <v>41</v>
@@ -1989,13 +1989,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="H13" t="n">
         <v>3.05</v>
       </c>
       <c r="I13" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -2003,7 +2003,7 @@
         <v>1.35</v>
       </c>
       <c r="M13" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="N13" t="n">
         <v>2.02</v>
@@ -2021,22 +2021,22 @@
         <v>1.78</v>
       </c>
       <c r="S13" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="T13" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="U13" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="V13" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="W13" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="X13" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y13" t="n">
         <v>40</v>
@@ -2051,28 +2051,28 @@
         <v>14.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AD13" t="n">
         <v>600</v>
       </c>
       <c r="AE13" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="AG13" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AH13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI13" t="n">
         <v>19</v>
       </c>
       <c r="AJ13" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14">
@@ -2225,10 +2225,10 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="H15" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I15" t="n">
         <v>9.5</v>
@@ -2254,22 +2254,22 @@
         <v>2.47</v>
       </c>
       <c r="R15" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="S15" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="T15" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="U15" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="V15" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="W15" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="X15" t="n">
         <v>12.5</v>
@@ -2278,10 +2278,10 @@
         <v>32</v>
       </c>
       <c r="Z15" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AA15" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AB15" t="n">
         <v>22</v>
@@ -2461,13 +2461,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H17" t="n">
         <v>3.15</v>
       </c>
       <c r="I17" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -2493,7 +2493,7 @@
         <v>1.78</v>
       </c>
       <c r="S17" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="T17" t="n">
         <v>9.25</v>
@@ -2502,19 +2502,19 @@
         <v>17.5</v>
       </c>
       <c r="V17" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="W17" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="X17" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Y17" t="n">
         <v>40</v>
       </c>
       <c r="Z17" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AA17" t="n">
         <v>6.1</v>
@@ -2529,7 +2529,7 @@
         <v>600</v>
       </c>
       <c r="AE17" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AF17" t="n">
         <v>9.75</v>
@@ -2541,10 +2541,10 @@
         <v>20</v>
       </c>
       <c r="AI17" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AJ17" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
@@ -2722,10 +2722,10 @@
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="S19" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="T19" t="n">
         <v>8.75</v>
@@ -2811,13 +2811,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="H20" t="n">
         <v>3.35</v>
       </c>
       <c r="I20" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -2828,10 +2828,10 @@
         <v>4.3</v>
       </c>
       <c r="N20" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="O20" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
@@ -2842,22 +2842,22 @@
         <v>2.33</v>
       </c>
       <c r="T20" t="n">
-        <v>7.6</v>
+        <v>8.25</v>
       </c>
       <c r="U20" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="V20" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="W20" t="n">
         <v>16</v>
       </c>
       <c r="X20" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y20" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z20" t="n">
         <v>12.5</v>
@@ -2866,7 +2866,7 @@
         <v>6</v>
       </c>
       <c r="AB20" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AC20" t="n">
         <v>32</v>
@@ -2881,16 +2881,16 @@
         <v>16</v>
       </c>
       <c r="AG20" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AI20" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AJ20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21">
@@ -2925,10 +2925,10 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="H21" t="n">
-        <v>4.75</v>
+        <v>4.85</v>
       </c>
       <c r="I21" t="n">
         <v>7.4</v>
@@ -2946,13 +2946,13 @@
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="S21" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="T21" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="U21" t="n">
         <v>6.4</v>
@@ -2961,7 +2961,7 @@
         <v>7.3</v>
       </c>
       <c r="W21" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X21" t="n">
         <v>8.5</v>
@@ -2985,13 +2985,13 @@
         <v>300</v>
       </c>
       <c r="AE21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF21" t="n">
         <v>45</v>
       </c>
       <c r="AG21" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AH21" t="n">
         <v>120</v>
@@ -3035,7 +3035,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="H22" t="n">
         <v>4.33</v>
@@ -3050,16 +3050,16 @@
         <v>15</v>
       </c>
       <c r="L22" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N22" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="O22" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="P22" t="n">
         <v>1.3</v>
@@ -3074,7 +3074,7 @@
         <v>1.95</v>
       </c>
       <c r="T22" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U22" t="n">
         <v>7.5</v>
@@ -3166,25 +3166,25 @@
         <v>7</v>
       </c>
       <c r="J23" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K23" t="n">
         <v>11</v>
       </c>
       <c r="L23" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M23" t="n">
         <v>3.75</v>
       </c>
       <c r="N23" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="O23" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="P23" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q23" t="n">
         <v>3</v>
@@ -3523,25 +3523,25 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>5.75</v>
+        <v>7</v>
       </c>
       <c r="H26" t="n">
-        <v>6.25</v>
+        <v>5</v>
       </c>
       <c r="I26" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="J26" t="n">
         <v>1.02</v>
       </c>
       <c r="K26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L26" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="M26" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N26" t="n">
         <v>1.5</v>
@@ -3556,22 +3556,22 @@
         <v>3.5</v>
       </c>
       <c r="R26" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S26" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T26" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="U26" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="V26" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="W26" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="X26" t="n">
         <v>41</v>
@@ -3580,13 +3580,13 @@
         <v>41</v>
       </c>
       <c r="Z26" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AA26" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AB26" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AC26" t="n">
         <v>51</v>
@@ -3595,10 +3595,10 @@
         <v>500</v>
       </c>
       <c r="AE26" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF26" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG26" t="n">
         <v>9</v>
@@ -3645,19 +3645,19 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="H27" t="n">
         <v>5.75</v>
       </c>
       <c r="I27" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="J27" t="n">
-        <v>19</v>
+        <v>1.02</v>
       </c>
       <c r="K27" t="n">
-        <v>1.03</v>
+        <v>11</v>
       </c>
       <c r="L27" t="n">
         <v>1.17</v>
@@ -3684,13 +3684,13 @@
         <v>1.83</v>
       </c>
       <c r="T27" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="U27" t="n">
         <v>34</v>
       </c>
       <c r="V27" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="W27" t="n">
         <v>67</v>
@@ -3767,13 +3767,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I28" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="J28" t="n">
         <v>1.06</v>
@@ -3791,34 +3791,34 @@
         <v>1.83</v>
       </c>
       <c r="O28" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="P28" t="n">
         <v>1.42</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="R28" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S28" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="T28" t="n">
-        <v>8.75</v>
+        <v>8</v>
       </c>
       <c r="U28" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="V28" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="W28" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="X28" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="Y28" t="n">
         <v>24</v>
@@ -3827,34 +3827,34 @@
         <v>7.2</v>
       </c>
       <c r="AA28" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="AB28" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC28" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AD28" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AE28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF28" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AG28" t="n">
-        <v>10.5</v>
+        <v>11.25</v>
       </c>
       <c r="AH28" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AI28" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ28" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29">
@@ -3889,55 +3889,55 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H29" t="n">
         <v>3.2</v>
       </c>
       <c r="I29" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="J29" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="K29" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="L29" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M29" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="N29" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="O29" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P29" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="Q29" t="n">
         <v>2.57</v>
       </c>
       <c r="R29" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="S29" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="T29" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V29" t="n">
         <v>12.5</v>
       </c>
       <c r="W29" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="X29" t="n">
         <v>37</v>
@@ -3946,7 +3946,7 @@
         <v>45</v>
       </c>
       <c r="Z29" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AA29" t="n">
         <v>6.2</v>
@@ -3964,16 +3964,16 @@
         <v>6.3</v>
       </c>
       <c r="AF29" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AG29" t="n">
         <v>8.75</v>
       </c>
       <c r="AH29" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AI29" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AJ29" t="n">
         <v>32</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ29"/>
+  <dimension ref="A1:AJ53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1716,7 +1716,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CKgegK5M</t>
+          <t>xx0D3Z2t</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1726,119 +1726,119 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>AUSTRALIA - A-LEAGUE</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Brisbane Roar</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Adelaide United</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.95</v>
+        <v>3.2</v>
       </c>
       <c r="H11" t="n">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="I11" t="n">
+        <v>2</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K11" t="n">
+        <v>29</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="M11" t="n">
+        <v>8</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="O11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Q11" t="n">
         <v>4.33</v>
       </c>
-      <c r="J11" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>7</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M11" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="N11" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.5</v>
-      </c>
       <c r="R11" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="S11" t="n">
-        <v>1.73</v>
+        <v>3.25</v>
       </c>
       <c r="T11" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="U11" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="V11" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="W11" t="n">
+        <v>41</v>
+      </c>
+      <c r="X11" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AE11" t="n">
         <v>17</v>
       </c>
-      <c r="X11" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB11" t="n">
+      <c r="AF11" t="n">
         <v>17</v>
       </c>
-      <c r="AC11" t="n">
-        <v>67</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>351</v>
-      </c>
-      <c r="AE11" t="n">
+      <c r="AG11" t="n">
         <v>10</v>
       </c>
-      <c r="AF11" t="n">
+      <c r="AH11" t="n">
         <v>21</v>
       </c>
-      <c r="AG11" t="n">
+      <c r="AI11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>15</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CdHGbFs2</t>
+          <t>0xzUbO7C</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1848,119 +1848,119 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>AUSTRIA - BUNDESLIGA</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Volta Redonda</t>
+          <t>Grazer AK</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Ferroviaria</t>
+          <t>Hartberg</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="I12" t="n">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="J12" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="K12" t="n">
-        <v>6.5</v>
+        <v>11</v>
       </c>
       <c r="L12" t="n">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="M12" t="n">
-        <v>2.63</v>
+        <v>3.5</v>
       </c>
       <c r="N12" t="n">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="O12" t="n">
-        <v>1.53</v>
+        <v>1.9</v>
       </c>
       <c r="P12" t="n">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="R12" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="S12" t="n">
-        <v>1.73</v>
+        <v>2.05</v>
       </c>
       <c r="T12" t="n">
-        <v>6</v>
+        <v>9.5</v>
       </c>
       <c r="U12" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="V12" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W12" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="X12" t="n">
         <v>21</v>
       </c>
       <c r="Y12" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA12" t="n">
         <v>6.5</v>
       </c>
-      <c r="AA12" t="n">
-        <v>6</v>
-      </c>
       <c r="AB12" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AC12" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AD12" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="AE12" t="n">
         <v>9</v>
       </c>
       <c r="AF12" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AH12" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AI12" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AJ12" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>fkxd9Vbm</t>
+          <t>MiOxc2xP</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1970,115 +1970,119 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>04:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>CHINA - JIA LEAGUE</t>
+          <t>AUSTRIA - BUNDESLIGA</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Yanbian Longding</t>
+          <t>Tirol</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Dalian K'un City</t>
+          <t>Altach</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="H13" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="I13" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>2.6</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K13" t="n">
+        <v>9</v>
+      </c>
       <c r="L13" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M13" t="n">
-        <v>2.72</v>
+        <v>3</v>
       </c>
       <c r="N13" t="n">
-        <v>2.02</v>
+        <v>2.15</v>
       </c>
       <c r="O13" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P13" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.52</v>
+        <v>2.63</v>
       </c>
       <c r="R13" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="S13" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="T13" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="U13" t="n">
-        <v>16.5</v>
+        <v>13</v>
       </c>
       <c r="V13" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="W13" t="n">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="X13" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="Y13" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="Z13" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AA13" t="n">
         <v>6</v>
       </c>
       <c r="AB13" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC13" t="n">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="AD13" t="n">
-        <v>600</v>
+        <v>251</v>
       </c>
       <c r="AE13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF13" t="n">
-        <v>10.25</v>
+        <v>12</v>
       </c>
       <c r="AG13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH13" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AI13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ13" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>M1TC5mbC</t>
+          <t>CG3nH5Nt</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2088,115 +2092,119 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>04:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>CHINA - JIA LEAGUE</t>
+          <t>AUSTRIA - BUNDESLIGA</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Shaanxi Union</t>
+          <t>A. Klagenfurt</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Nanjing City</t>
+          <t>LASK</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="H14" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="I14" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1.85</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K14" t="n">
+        <v>12</v>
+      </c>
       <c r="L14" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="O14" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="P14" t="n">
         <v>1.36</v>
       </c>
-      <c r="M14" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="N14" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1.42</v>
-      </c>
       <c r="Q14" t="n">
-        <v>2.47</v>
+        <v>3</v>
       </c>
       <c r="R14" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="S14" t="n">
-        <v>1.82</v>
+        <v>2</v>
       </c>
       <c r="T14" t="n">
-        <v>7.2</v>
+        <v>12</v>
       </c>
       <c r="U14" t="n">
-        <v>11.5</v>
+        <v>21</v>
       </c>
       <c r="V14" t="n">
+        <v>13</v>
+      </c>
+      <c r="W14" t="n">
+        <v>41</v>
+      </c>
+      <c r="X14" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>201</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF14" t="n">
         <v>9.5</v>
       </c>
-      <c r="W14" t="n">
-        <v>26</v>
-      </c>
-      <c r="X14" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>75</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>700</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>14</v>
-      </c>
       <c r="AG14" t="n">
-        <v>10.25</v>
+        <v>8.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="AI14" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AJ14" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>0nu479Ta</t>
+          <t>t4Fm1mbk</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2206,115 +2214,119 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>CHINA - JIA LEAGUE</t>
+          <t>BELGIUM - JUPILER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Liaoning Tieren</t>
+          <t>Dender</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Shenzhen Juniors</t>
+          <t>Charleroi</t>
         </is>
       </c>
       <c r="G15" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K15" t="n">
+        <v>11</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="P15" t="n">
         <v>1.4</v>
       </c>
-      <c r="H15" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I15" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M15" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="N15" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1.42</v>
-      </c>
       <c r="Q15" t="n">
-        <v>2.47</v>
+        <v>2.75</v>
       </c>
       <c r="R15" t="n">
-        <v>2.07</v>
+        <v>1.75</v>
       </c>
       <c r="S15" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="T15" t="n">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="U15" t="n">
-        <v>5.9</v>
+        <v>17</v>
       </c>
       <c r="V15" t="n">
+        <v>12</v>
+      </c>
+      <c r="W15" t="n">
+        <v>34</v>
+      </c>
+      <c r="X15" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>201</v>
+      </c>
+      <c r="AE15" t="n">
         <v>8</v>
       </c>
-      <c r="W15" t="n">
+      <c r="AF15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG15" t="n">
         <v>9</v>
       </c>
-      <c r="X15" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>120</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>101</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>20</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>70</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>30</v>
-      </c>
       <c r="AH15" t="n">
-        <v>350</v>
+        <v>21</v>
       </c>
       <c r="AI15" t="n">
-        <v>150</v>
+        <v>19</v>
       </c>
       <c r="AJ15" t="n">
-        <v>120</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>URWK3RSO</t>
+          <t>pYTH69zS</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2324,115 +2336,119 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>CHINA - JIA LEAGUE</t>
+          <t>BELGIUM - JUPILER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>KV Mechelen</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Qingdao Red Lions</t>
+          <t>Westerlo</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.42</v>
+        <v>1.91</v>
       </c>
       <c r="H16" t="n">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+        <v>3.6</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K16" t="n">
+        <v>15</v>
+      </c>
       <c r="L16" t="n">
-        <v>1.47</v>
+        <v>1.18</v>
       </c>
       <c r="M16" t="n">
-        <v>2.35</v>
+        <v>4.5</v>
       </c>
       <c r="N16" t="n">
-        <v>2.35</v>
+        <v>1.62</v>
       </c>
       <c r="O16" t="n">
-        <v>1.47</v>
+        <v>2.25</v>
       </c>
       <c r="P16" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="Q16" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S16" t="n">
         <v>2.25</v>
       </c>
-      <c r="R16" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.65</v>
-      </c>
       <c r="T16" t="n">
-        <v>6.1</v>
+        <v>10</v>
       </c>
       <c r="U16" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="V16" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="W16" t="n">
+        <v>17</v>
+      </c>
+      <c r="X16" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>126</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI16" t="n">
         <v>26</v>
       </c>
-      <c r="X16" t="n">
-        <v>25</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>100</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>700</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>40</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>30</v>
-      </c>
       <c r="AJ16" t="n">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>8h2VNUDt</t>
+          <t>jZz98V5F</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2442,115 +2458,119 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>CHINA - JIA LEAGUE</t>
+          <t>BELGIUM - JUPILER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Nantong Zhiyun</t>
+          <t>St. Liege</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Chongqing Tonglianglong</t>
+          <t>Leuven</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="H17" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="I17" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K17" t="n">
+        <v>9</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="N17" t="n">
         <v>2.1</v>
       </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M17" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="N17" t="n">
-        <v>2</v>
-      </c>
       <c r="O17" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="P17" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.52</v>
+        <v>2.63</v>
       </c>
       <c r="R17" t="n">
-        <v>1.78</v>
+        <v>1.91</v>
       </c>
       <c r="S17" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T17" t="n">
-        <v>9.25</v>
+        <v>7.5</v>
       </c>
       <c r="U17" t="n">
-        <v>17.5</v>
+        <v>11</v>
       </c>
       <c r="V17" t="n">
-        <v>11.75</v>
+        <v>9.5</v>
       </c>
       <c r="W17" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="X17" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="Y17" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="Z17" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AB17" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC17" t="n">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="AD17" t="n">
-        <v>600</v>
+        <v>301</v>
       </c>
       <c r="AE17" t="n">
-        <v>6.9</v>
+        <v>9</v>
       </c>
       <c r="AF17" t="n">
-        <v>9.75</v>
+        <v>15</v>
       </c>
       <c r="AG17" t="n">
-        <v>8.75</v>
+        <v>12</v>
       </c>
       <c r="AH17" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="AI17" t="n">
-        <v>17.5</v>
+        <v>26</v>
       </c>
       <c r="AJ17" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SQrWxrCc</t>
+          <t>CKgegK5M</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2560,119 +2580,119 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA B</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Boca Juniors</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Orsomarso</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.62</v>
+        <v>1.95</v>
       </c>
       <c r="H18" t="n">
-        <v>2.87</v>
+        <v>3.1</v>
       </c>
       <c r="I18" t="n">
-        <v>2.77</v>
+        <v>4.33</v>
       </c>
       <c r="J18" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K18" t="n">
+        <v>7</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="T18" t="n">
         <v>6</v>
       </c>
-      <c r="L18" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="M18" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="N18" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R18" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="T18" t="n">
-        <v>6.2</v>
-      </c>
       <c r="U18" t="n">
-        <v>11.25</v>
+        <v>8</v>
       </c>
       <c r="V18" t="n">
-        <v>10.75</v>
+        <v>9</v>
       </c>
       <c r="W18" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="X18" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="Y18" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="Z18" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="AA18" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="AB18" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AC18" t="n">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="AD18" t="n">
-        <v>101</v>
+        <v>351</v>
       </c>
       <c r="AE18" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="AF18" t="n">
-        <v>12.5</v>
+        <v>21</v>
       </c>
       <c r="AG18" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AH18" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="AI18" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="AJ18" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>p8duUtN0</t>
+          <t>CdHGbFs2</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2682,107 +2702,119 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>ESTONIA - MEISTRILIIGA</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Kalju</t>
+          <t>Volta Redonda</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tallinna Kalev</t>
+          <t>Ferroviaria</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.13</v>
+        <v>2.15</v>
       </c>
       <c r="H19" t="n">
-        <v>6.3</v>
+        <v>3</v>
       </c>
       <c r="I19" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
+        <v>3.75</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>7</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2.63</v>
+      </c>
       <c r="N19" t="n">
-        <v>1.31</v>
+        <v>2.4</v>
       </c>
       <c r="O19" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
+        <v>1.53</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.38</v>
+      </c>
       <c r="R19" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="S19" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="T19" t="n">
-        <v>8.75</v>
+        <v>6</v>
       </c>
       <c r="U19" t="n">
-        <v>6.1</v>
+        <v>9.5</v>
       </c>
       <c r="V19" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="W19" t="n">
+        <v>21</v>
+      </c>
+      <c r="X19" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA19" t="n">
         <v>6</v>
       </c>
-      <c r="X19" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA19" t="n">
+      <c r="AB19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>351</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG19" t="n">
         <v>13</v>
       </c>
-      <c r="AB19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>80</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>450</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>120</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>40</v>
-      </c>
       <c r="AH19" t="n">
-        <v>500</v>
+        <v>41</v>
       </c>
       <c r="AI19" t="n">
-        <v>150</v>
+        <v>34</v>
       </c>
       <c r="AJ19" t="n">
-        <v>100</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>lt3WV2hl</t>
+          <t>fkxd9Vbm</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2792,111 +2824,115 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>04:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ESTONIA - MEISTRILIIGA</t>
+          <t>CHINA - JIA LEAGUE</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Tammeka</t>
+          <t>Yanbian Longding</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Kuressaare</t>
+          <t>Dalian K'un City</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="H20" t="n">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="I20" t="n">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
-        <v>1.18</v>
+        <v>1.35</v>
       </c>
       <c r="M20" t="n">
-        <v>4.3</v>
+        <v>2.72</v>
       </c>
       <c r="N20" t="n">
-        <v>1.6</v>
+        <v>2.02</v>
       </c>
       <c r="O20" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
+        <v>1.62</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.52</v>
+      </c>
       <c r="R20" t="n">
-        <v>1.54</v>
+        <v>1.78</v>
       </c>
       <c r="S20" t="n">
-        <v>2.33</v>
+        <v>1.83</v>
       </c>
       <c r="T20" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="U20" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="W20" t="n">
+        <v>45</v>
+      </c>
+      <c r="X20" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z20" t="n">
         <v>8.25</v>
-      </c>
-      <c r="U20" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="V20" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="W20" t="n">
-        <v>16</v>
-      </c>
-      <c r="X20" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>12.5</v>
       </c>
       <c r="AA20" t="n">
         <v>6</v>
       </c>
       <c r="AB20" t="n">
-        <v>9.75</v>
+        <v>14.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="AD20" t="n">
-        <v>175</v>
+        <v>600</v>
       </c>
       <c r="AE20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF20" t="n">
         <v>10.25</v>
       </c>
-      <c r="AF20" t="n">
-        <v>16</v>
-      </c>
       <c r="AG20" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH20" t="n">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="AI20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ20" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>hYamSKiD</t>
+          <t>M1TC5mbC</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2906,107 +2942,115 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>04:30</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>ESTONIA - MEISTRILIIGA</t>
+          <t>CHINA - JIA LEAGUE</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Flora</t>
+          <t>Shaanxi Union</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Harju JK Laagri</t>
+          <t>Nanjing City</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.3</v>
+        <v>2.45</v>
       </c>
       <c r="H21" t="n">
-        <v>4.85</v>
+        <v>3.1</v>
       </c>
       <c r="I21" t="n">
-        <v>7.4</v>
+        <v>2.8</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2.67</v>
+      </c>
       <c r="N21" t="n">
-        <v>1.44</v>
+        <v>2.05</v>
       </c>
       <c r="O21" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
+        <v>1.62</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.47</v>
+      </c>
       <c r="R21" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="S21" t="n">
-        <v>1.95</v>
+        <v>1.82</v>
       </c>
       <c r="T21" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="U21" t="n">
-        <v>6.4</v>
+        <v>11.5</v>
       </c>
       <c r="V21" t="n">
-        <v>7.3</v>
+        <v>9.5</v>
       </c>
       <c r="W21" t="n">
-        <v>7.5</v>
+        <v>26</v>
       </c>
       <c r="X21" t="n">
-        <v>8.5</v>
+        <v>22</v>
       </c>
       <c r="Y21" t="n">
-        <v>17.5</v>
+        <v>35</v>
       </c>
       <c r="Z21" t="n">
-        <v>16.5</v>
+        <v>8.25</v>
       </c>
       <c r="AA21" t="n">
-        <v>8.75</v>
+        <v>6</v>
       </c>
       <c r="AB21" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="AD21" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="AE21" t="n">
-        <v>20</v>
+        <v>8.25</v>
       </c>
       <c r="AF21" t="n">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="AG21" t="n">
-        <v>19.5</v>
+        <v>10.25</v>
       </c>
       <c r="AH21" t="n">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="AI21" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="AJ21" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>lCH69Z5M</t>
+          <t>0nu479Ta</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3016,119 +3060,115 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>FINLAND - VEIKKAUSLIIGA</t>
+          <t>CHINA - JIA LEAGUE</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>HJK</t>
+          <t>Liaoning Tieren</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Gnistan</t>
+          <t>Shenzhen Juniors</t>
         </is>
       </c>
       <c r="G22" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I22" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="P22" t="n">
         <v>1.42</v>
       </c>
-      <c r="H22" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="I22" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K22" t="n">
-        <v>15</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="M22" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="N22" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="O22" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1.3</v>
-      </c>
       <c r="Q22" t="n">
-        <v>3.4</v>
+        <v>2.47</v>
       </c>
       <c r="R22" t="n">
-        <v>1.8</v>
+        <v>2.07</v>
       </c>
       <c r="S22" t="n">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="T22" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U22" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="V22" t="n">
         <v>8</v>
       </c>
-      <c r="U22" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="V22" t="n">
-        <v>8.5</v>
-      </c>
       <c r="W22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X22" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Z22" t="n">
-        <v>15</v>
+        <v>8.25</v>
       </c>
       <c r="AA22" t="n">
-        <v>8.5</v>
+        <v>7.6</v>
       </c>
       <c r="AB22" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AC22" t="n">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="AD22" t="n">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="AE22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF22" t="n">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="AG22" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="AH22" t="n">
-        <v>81</v>
+        <v>350</v>
       </c>
       <c r="AI22" t="n">
-        <v>51</v>
+        <v>150</v>
       </c>
       <c r="AJ22" t="n">
-        <v>41</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>61XB1IYa</t>
+          <t>URWK3RSO</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3138,119 +3178,115 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>IRELAND - PREMIER DIVISION</t>
+          <t>CHINA - JIA LEAGUE</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Derry City</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Sligo Rovers</t>
+          <t>Qingdao Red Lions</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.48</v>
+        <v>2.42</v>
       </c>
       <c r="H23" t="n">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="I23" t="n">
-        <v>7</v>
-      </c>
-      <c r="J23" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K23" t="n">
-        <v>11</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
-        <v>1.22</v>
+        <v>1.47</v>
       </c>
       <c r="M23" t="n">
-        <v>3.75</v>
+        <v>2.35</v>
       </c>
       <c r="N23" t="n">
-        <v>1.82</v>
+        <v>2.35</v>
       </c>
       <c r="O23" t="n">
-        <v>1.92</v>
+        <v>1.47</v>
       </c>
       <c r="P23" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="R23" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S23" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="T23" t="n">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="U23" t="n">
-        <v>6.5</v>
+        <v>10.5</v>
       </c>
       <c r="V23" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="W23" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="X23" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="Y23" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="Z23" t="n">
-        <v>9.5</v>
+        <v>6.6</v>
       </c>
       <c r="AA23" t="n">
-        <v>7.5</v>
+        <v>5.7</v>
       </c>
       <c r="AB23" t="n">
         <v>17</v>
       </c>
       <c r="AC23" t="n">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="AD23" t="n">
-        <v>351</v>
+        <v>700</v>
       </c>
       <c r="AE23" t="n">
-        <v>19</v>
+        <v>7.4</v>
       </c>
       <c r="AF23" t="n">
-        <v>41</v>
+        <v>14.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>23</v>
+        <v>11.25</v>
       </c>
       <c r="AH23" t="n">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AI23" t="n">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="AJ23" t="n">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>McoIDdiS</t>
+          <t>8h2VNUDt</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3260,119 +3296,115 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>CHINA - JIA LEAGUE</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Stal Mielec</t>
+          <t>Nantong Zhiyun</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Gornik Zabrze</t>
+          <t>Chongqing Tonglianglong</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.63</v>
+        <v>3.4</v>
       </c>
       <c r="H24" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="I24" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K24" t="n">
-        <v>11</v>
-      </c>
+        <v>2.1</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
-        <v>1.25</v>
+        <v>1.34</v>
       </c>
       <c r="M24" t="n">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="N24" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="O24" t="n">
-        <v>1.98</v>
+        <v>1.65</v>
       </c>
       <c r="P24" t="n">
         <v>1.4</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.75</v>
+        <v>2.52</v>
       </c>
       <c r="R24" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="S24" t="n">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="T24" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="U24" t="n">
-        <v>13</v>
+        <v>17.5</v>
       </c>
       <c r="V24" t="n">
-        <v>10</v>
+        <v>11.75</v>
       </c>
       <c r="W24" t="n">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="X24" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="Y24" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="Z24" t="n">
-        <v>11</v>
+        <v>8.25</v>
       </c>
       <c r="AA24" t="n">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="AB24" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="AD24" t="n">
-        <v>201</v>
+        <v>600</v>
       </c>
       <c r="AE24" t="n">
-        <v>9</v>
+        <v>6.9</v>
       </c>
       <c r="AF24" t="n">
-        <v>13</v>
+        <v>9.75</v>
       </c>
       <c r="AG24" t="n">
-        <v>10</v>
+        <v>8.75</v>
       </c>
       <c r="AH24" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="AI24" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AJ24" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>l6SssTG5</t>
+          <t>SQrWxrCc</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3382,119 +3414,119 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>COLOMBIA - PRIMERA B</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Kotwica Kolobrzeg</t>
+          <t>Boca Juniors</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Ruch Chorzow</t>
+          <t>Orsomarso</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>4.2</v>
+        <v>2.62</v>
       </c>
       <c r="H25" t="n">
-        <v>3.4</v>
+        <v>2.87</v>
       </c>
       <c r="I25" t="n">
-        <v>1.75</v>
+        <v>2.77</v>
       </c>
       <c r="J25" t="n">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="K25" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L25" t="n">
-        <v>1.33</v>
+        <v>1.52</v>
       </c>
       <c r="M25" t="n">
-        <v>3.25</v>
+        <v>2.22</v>
       </c>
       <c r="N25" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R25" t="n">
         <v>2.05</v>
       </c>
-      <c r="O25" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="P25" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.91</v>
-      </c>
       <c r="S25" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="T25" t="n">
-        <v>11</v>
+        <v>6.2</v>
       </c>
       <c r="U25" t="n">
-        <v>21</v>
+        <v>11.25</v>
       </c>
       <c r="V25" t="n">
-        <v>15</v>
+        <v>10.75</v>
       </c>
       <c r="W25" t="n">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="X25" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="Y25" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="Z25" t="n">
-        <v>9.5</v>
+        <v>6.2</v>
       </c>
       <c r="AA25" t="n">
-        <v>7</v>
+        <v>5.8</v>
       </c>
       <c r="AB25" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="AD25" t="n">
-        <v>301</v>
+        <v>101</v>
       </c>
       <c r="AE25" t="n">
         <v>6.5</v>
       </c>
       <c r="AF25" t="n">
-        <v>8</v>
+        <v>12.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AH25" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="AI25" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="AJ25" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>tQtC1Ixg</t>
+          <t>6XkdGyY0</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3504,119 +3536,119 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>13:05</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>CROATIA - HNL</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Damac</t>
+          <t>Slaven Belupo</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Varazdin</t>
         </is>
       </c>
       <c r="G26" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K26" t="n">
         <v>7</v>
       </c>
-      <c r="H26" t="n">
-        <v>5</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="J26" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K26" t="n">
-        <v>11</v>
-      </c>
       <c r="L26" t="n">
-        <v>1.14</v>
+        <v>1.44</v>
       </c>
       <c r="M26" t="n">
-        <v>5</v>
+        <v>2.63</v>
       </c>
       <c r="N26" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="O26" t="n">
-        <v>2.5</v>
+        <v>1.53</v>
       </c>
       <c r="P26" t="n">
-        <v>1.29</v>
+        <v>1.53</v>
       </c>
       <c r="Q26" t="n">
-        <v>3.5</v>
+        <v>2.38</v>
       </c>
       <c r="R26" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="S26" t="n">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="T26" t="n">
+        <v>6</v>
+      </c>
+      <c r="U26" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>10</v>
+      </c>
+      <c r="W26" t="n">
         <v>21</v>
       </c>
-      <c r="U26" t="n">
-        <v>41</v>
-      </c>
-      <c r="V26" t="n">
+      <c r="X26" t="n">
         <v>21</v>
-      </c>
-      <c r="W26" t="n">
-        <v>81</v>
-      </c>
-      <c r="X26" t="n">
-        <v>41</v>
       </c>
       <c r="Y26" t="n">
         <v>41</v>
       </c>
       <c r="Z26" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="AA26" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AB26" t="n">
         <v>17</v>
       </c>
       <c r="AC26" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD26" t="n">
-        <v>500</v>
+        <v>1250</v>
       </c>
       <c r="AE26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF26" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AG26" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AH26" t="n">
-        <v>9.5</v>
+        <v>41</v>
       </c>
       <c r="AI26" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="AJ26" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>EwuKad75</t>
+          <t>YJilIc3l</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -3626,119 +3658,119 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>13:20</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>CROATIA - HNL</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Al Wehda</t>
+          <t>Lok. Zagreb</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Al Ahli SC</t>
+          <t>Sibenik</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>5.75</v>
+        <v>1.75</v>
       </c>
       <c r="H27" t="n">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="I27" t="n">
-        <v>1.4</v>
+        <v>4.33</v>
       </c>
       <c r="J27" t="n">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="K27" t="n">
+        <v>9</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="N27" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R27" t="n">
+        <v>2</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="T27" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U27" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W27" t="n">
+        <v>13</v>
+      </c>
+      <c r="X27" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AE27" t="n">
         <v>11</v>
       </c>
-      <c r="L27" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="M27" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="N27" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="O27" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="P27" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S27" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="T27" t="n">
-        <v>17</v>
-      </c>
-      <c r="U27" t="n">
-        <v>34</v>
-      </c>
-      <c r="V27" t="n">
-        <v>17</v>
-      </c>
-      <c r="W27" t="n">
-        <v>67</v>
-      </c>
-      <c r="X27" t="n">
+      <c r="AF27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI27" t="n">
         <v>41</v>
       </c>
-      <c r="Y27" t="n">
+      <c r="AJ27" t="n">
         <v>41</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>500</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>23</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CCTclxee</t>
+          <t>UFl3jSCG</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -3748,119 +3780,119 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>CYPRUS - CYPRUS LEAGUE</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Radnicki Nis</t>
+          <t>AEK Larnaca</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>IMT Novi Beograd</t>
+          <t>Omonia</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="H28" t="n">
-        <v>3.05</v>
+        <v>3.65</v>
       </c>
       <c r="I28" t="n">
-        <v>3.35</v>
+        <v>4.1</v>
       </c>
       <c r="J28" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K28" t="n">
-        <v>7.2</v>
+        <v>8.25</v>
       </c>
       <c r="L28" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M28" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="N28" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="O28" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="P28" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.67</v>
+        <v>2.8</v>
       </c>
       <c r="R28" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="S28" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="T28" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U28" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="V28" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="W28" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="X28" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Z28" t="n">
-        <v>7.2</v>
+        <v>8.25</v>
       </c>
       <c r="AA28" t="n">
-        <v>6.1</v>
+        <v>7.4</v>
       </c>
       <c r="AB28" t="n">
-        <v>12</v>
+        <v>15.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="AD28" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="AE28" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AF28" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AG28" t="n">
-        <v>11.25</v>
+        <v>14.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="AI28" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="AJ28" t="n">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>KElJeK2L</t>
+          <t>xthBl6sT</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -3870,89 +3902,89 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>CYPRUS - CYPRUS LEAGUE</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Tekstilac Odzaci</t>
+          <t>APOEL</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Zeleznicar Pancevo</t>
+          <t>Aris</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.6</v>
+        <v>2.87</v>
       </c>
       <c r="H29" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I29" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K29" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="n">
         <v>2.05</v>
       </c>
-      <c r="J29" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="K29" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M29" t="n">
+      <c r="O29" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q29" t="n">
         <v>2.75</v>
       </c>
-      <c r="N29" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P29" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>2.57</v>
-      </c>
       <c r="R29" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="S29" t="n">
-        <v>1.78</v>
+        <v>1.87</v>
       </c>
       <c r="T29" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="U29" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="V29" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="W29" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="X29" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="Y29" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Z29" t="n">
-        <v>6.3</v>
+        <v>7.3</v>
       </c>
       <c r="AA29" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="AB29" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC29" t="n">
         <v>90</v>
@@ -3961,22 +3993,2902 @@
         <v>800</v>
       </c>
       <c r="AE29" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Ymefhlr4</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>CYPRUS - CYPRUS LEAGUE</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Pafos</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Apollon</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H30" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I30" t="n">
+        <v>8</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K30" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="R30" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T30" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U30" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="V30" t="n">
+        <v>9</v>
+      </c>
+      <c r="W30" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="X30" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>37</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>150</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>27</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>250</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>dvAK9zjl</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>DENMARK - SUPERLIGA</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Nordsjaelland</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Midtjylland</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K31" t="n">
+        <v>19</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O31" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T31" t="n">
+        <v>12</v>
+      </c>
+      <c r="U31" t="n">
+        <v>15</v>
+      </c>
+      <c r="V31" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W31" t="n">
+        <v>23</v>
+      </c>
+      <c r="X31" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>QBJxageC</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>DENMARK - 1ST DIVISION</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Esbjerg</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Fredericia</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H32" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K32" t="n">
+        <v>17</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="O32" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T32" t="n">
+        <v>13</v>
+      </c>
+      <c r="U32" t="n">
+        <v>19</v>
+      </c>
+      <c r="V32" t="n">
+        <v>12</v>
+      </c>
+      <c r="W32" t="n">
+        <v>34</v>
+      </c>
+      <c r="X32" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>URxhs9eo</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>ECUADOR - SERIE B</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>22 de Julio</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Ind. Juniors</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H33" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="N33" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R33" t="n">
+        <v>2</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="T33" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="U33" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="V33" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W33" t="n">
+        <v>21</v>
+      </c>
+      <c r="X33" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>110</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>xUcDli3B</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>ECUADOR - SERIE B</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Imbabura</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Vargas Torres</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H34" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I34" t="n">
+        <v>6</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="K34" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="N34" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T34" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="U34" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="V34" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="W34" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="X34" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>150</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>150</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>p8duUtN0</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>ESTONIA - MEISTRILIIGA</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Kalju</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Tallinna Kalev</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="H35" t="n">
         <v>6.3</v>
       </c>
-      <c r="AF29" t="n">
+      <c r="I35" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="O35" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="T35" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="U35" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="W35" t="n">
+        <v>6</v>
+      </c>
+      <c r="X35" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>80</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>450</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>120</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>40</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>500</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>150</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>lt3WV2hl</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>ESTONIA - MEISTRILIIGA</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Tammeka</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Kuressaare</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>2</v>
+      </c>
+      <c r="H36" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I36" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="O36" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="S36" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="T36" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="U36" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="V36" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="W36" t="n">
+        <v>16</v>
+      </c>
+      <c r="X36" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>32</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>175</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>35</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>20</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>hYamSKiD</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>ESTONIA - MEISTRILIIGA</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Flora</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Harju JK Laagri</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H37" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="I37" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="O37" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T37" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="U37" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="W37" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X37" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>120</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>lCH69Z5M</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>FINLAND - VEIKKAUSLIIGA</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>HJK</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Gnistan</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H38" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I38" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K38" t="n">
+        <v>15</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="O38" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T38" t="n">
+        <v>8</v>
+      </c>
+      <c r="U38" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W38" t="n">
+        <v>10</v>
+      </c>
+      <c r="X38" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>201</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>81</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>4CPt7vqo</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>FINLAND - YKKOSLIIGA</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>SJK Akatemia</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>TPS</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="H39" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I39" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="N39" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="O39" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S39" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="T39" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="U39" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="W39" t="n">
+        <v>35</v>
+      </c>
+      <c r="X39" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>40</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>200</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG39" t="n">
         <v>9</v>
       </c>
-      <c r="AG29" t="n">
+      <c r="AH39" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>61XB1IYa</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>15:45</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>IRELAND - PREMIER DIVISION</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Derry City</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Sligo Rovers</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="H40" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I40" t="n">
+        <v>7</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K40" t="n">
+        <v>11</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N40" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>3</v>
+      </c>
+      <c r="R40" t="n">
+        <v>2</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="T40" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U40" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W40" t="n">
+        <v>10</v>
+      </c>
+      <c r="X40" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>351</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>81</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>rRWKIzCt</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>PARAGUAY - DIVISION INTERMEDIA</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Rubio Nu</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="H41" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I41" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="K41" t="n">
+        <v>6</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="N41" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R41" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="T41" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="U41" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="W41" t="n">
+        <v>26</v>
+      </c>
+      <c r="X41" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>45</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>101</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>GvVSGEtg</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>PARAGUAY - DIVISION INTERMEDIA</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Encarnacion FC</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Resistencia</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+      <c r="I42" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="N42" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R42" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="T42" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="U42" t="n">
+        <v>8</v>
+      </c>
+      <c r="V42" t="n">
+        <v>8</v>
+      </c>
+      <c r="W42" t="n">
+        <v>20</v>
+      </c>
+      <c r="X42" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>101</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>McoIDdiS</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>POLAND - EKSTRAKLASA</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Stal Mielec</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Gornik Zabrze</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="H43" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I43" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K43" t="n">
+        <v>11</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S43" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T43" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="U43" t="n">
+        <v>13</v>
+      </c>
+      <c r="V43" t="n">
+        <v>10</v>
+      </c>
+      <c r="W43" t="n">
+        <v>26</v>
+      </c>
+      <c r="X43" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>201</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>l6SssTG5</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>POLAND - DIVISION 1</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Kotwica Kolobrzeg</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Ruch Chorzow</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H44" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K44" t="n">
+        <v>10</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="N44" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T44" t="n">
+        <v>11</v>
+      </c>
+      <c r="U44" t="n">
+        <v>21</v>
+      </c>
+      <c r="V44" t="n">
+        <v>15</v>
+      </c>
+      <c r="W44" t="n">
+        <v>51</v>
+      </c>
+      <c r="X44" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>301</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>tQtC1Ixg</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>13:05</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Damac</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Al Nassr</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>7</v>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+      <c r="I45" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K45" t="n">
+        <v>11</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O45" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T45" t="n">
+        <v>21</v>
+      </c>
+      <c r="U45" t="n">
+        <v>41</v>
+      </c>
+      <c r="V45" t="n">
+        <v>21</v>
+      </c>
+      <c r="W45" t="n">
+        <v>81</v>
+      </c>
+      <c r="X45" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>EwuKad75</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>13:20</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Al Wehda</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Al Ahli SC</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="H46" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K46" t="n">
+        <v>11</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="N46" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="O46" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T46" t="n">
+        <v>17</v>
+      </c>
+      <c r="U46" t="n">
+        <v>34</v>
+      </c>
+      <c r="V46" t="n">
+        <v>17</v>
+      </c>
+      <c r="W46" t="n">
+        <v>67</v>
+      </c>
+      <c r="X46" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>CCTclxee</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>SERBIA - SUPER LIGA</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Radnicki Nis</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>IMT Novi Beograd</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H47" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I47" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K47" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="N47" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S47" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="T47" t="n">
+        <v>8</v>
+      </c>
+      <c r="U47" t="n">
+        <v>11</v>
+      </c>
+      <c r="V47" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W47" t="n">
+        <v>21</v>
+      </c>
+      <c r="X47" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>350</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>50</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>KElJeK2L</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>SERBIA - SUPER LIGA</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Tekstilac Odzaci</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Zeleznicar Pancevo</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H48" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I48" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="K48" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M48" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="N48" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="T48" t="n">
+        <v>9</v>
+      </c>
+      <c r="U48" t="n">
+        <v>18</v>
+      </c>
+      <c r="V48" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="W48" t="n">
+        <v>50</v>
+      </c>
+      <c r="X48" t="n">
+        <v>37</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>45</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>800</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG48" t="n">
         <v>8.75</v>
       </c>
-      <c r="AH29" t="n">
+      <c r="AH48" t="n">
         <v>18.5</v>
       </c>
-      <c r="AI29" t="n">
+      <c r="AI48" t="n">
         <v>18</v>
       </c>
-      <c r="AJ29" t="n">
+      <c r="AJ48" t="n">
         <v>32</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>GSGI3C64</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>SWEDEN - SUPERETTAN</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Helsingborg</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Vasteras SK</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H49" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K49" t="n">
+        <v>10</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="N49" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T49" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U49" t="n">
+        <v>13</v>
+      </c>
+      <c r="V49" t="n">
+        <v>10</v>
+      </c>
+      <c r="W49" t="n">
+        <v>26</v>
+      </c>
+      <c r="X49" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>251</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>z3nnYkxA</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>10:55</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Al Sharjah</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Ajman</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="H50" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I50" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K50" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="N50" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="O50" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>3</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="T50" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U50" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="V50" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="W50" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="X50" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>75</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>37</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>110</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>lnO4LCh4</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>10:55</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Al Urooba</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Al Wahda</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+      <c r="I51" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K51" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="N51" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O51" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="T51" t="n">
+        <v>30</v>
+      </c>
+      <c r="U51" t="n">
+        <v>80</v>
+      </c>
+      <c r="V51" t="n">
+        <v>28</v>
+      </c>
+      <c r="W51" t="n">
+        <v>300</v>
+      </c>
+      <c r="X51" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>75</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>75</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>ns6iC8Fj</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>13:45</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Bani Yas</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Al Ain</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H52" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K52" t="n">
+        <v>9</v>
+      </c>
+      <c r="L52" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="N52" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="O52" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S52" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="T52" t="n">
+        <v>17</v>
+      </c>
+      <c r="U52" t="n">
+        <v>32</v>
+      </c>
+      <c r="V52" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="W52" t="n">
+        <v>80</v>
+      </c>
+      <c r="X52" t="n">
+        <v>40</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>hKUeNYNi</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>13:45</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Dibba Al Hisn</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Al Nasr</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="H53" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K53" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="L53" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="N53" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="O53" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="P53" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R53" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S53" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="T53" t="n">
+        <v>15</v>
+      </c>
+      <c r="U53" t="n">
+        <v>26</v>
+      </c>
+      <c r="V53" t="n">
+        <v>14</v>
+      </c>
+      <c r="W53" t="n">
+        <v>65</v>
+      </c>
+      <c r="X53" t="n">
+        <v>35</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-04-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-22.xlsx
@@ -769,10 +769,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="H3" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="I3" t="n">
         <v>1.4</v>
@@ -802,13 +802,13 @@
         <v>4</v>
       </c>
       <c r="R3" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="U3" t="n">
         <v>41</v>
@@ -826,7 +826,7 @@
         <v>41</v>
       </c>
       <c r="Z3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA3" t="n">
         <v>11</v>
@@ -844,10 +844,10 @@
         <v>11</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH3" t="n">
         <v>11</v>
@@ -912,10 +912,10 @@
         <v>3.2</v>
       </c>
       <c r="N4" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O4" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="P4" t="n">
         <v>1.44</v>
@@ -1025,7 +1025,7 @@
         <v>1.02</v>
       </c>
       <c r="K5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L5" t="n">
         <v>1.14</v>
@@ -1061,16 +1061,16 @@
         <v>9</v>
       </c>
       <c r="W5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X5" t="n">
         <v>11</v>
       </c>
       <c r="Y5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA5" t="n">
         <v>13</v>
@@ -1561,22 +1561,22 @@
         <v>5</v>
       </c>
       <c r="AA9" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC9" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AD9" t="n">
         <v>101</v>
       </c>
       <c r="AE9" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AF9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG9" t="n">
         <v>15</v>
@@ -1757,7 +1757,7 @@
         <v>1.01</v>
       </c>
       <c r="K11" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="L11" t="n">
         <v>1.08</v>
@@ -2355,13 +2355,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H16" t="n">
         <v>3.8</v>
       </c>
       <c r="I16" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J16" t="n">
         <v>1.03</v>
@@ -2433,7 +2433,7 @@
         <v>21</v>
       </c>
       <c r="AG16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH16" t="n">
         <v>41</v>
@@ -2626,16 +2626,16 @@
         <v>1.57</v>
       </c>
       <c r="P18" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R18" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S18" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T18" t="n">
         <v>6</v>
@@ -2686,7 +2686,7 @@
         <v>41</v>
       </c>
       <c r="AJ18" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19">
@@ -2843,27 +2843,27 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H20" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I20" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="M20" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="N20" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="O20" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P20" t="n">
         <v>1.4</v>
@@ -2878,13 +2878,13 @@
         <v>1.83</v>
       </c>
       <c r="T20" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="U20" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="V20" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="W20" t="n">
         <v>45</v>
@@ -2893,7 +2893,7 @@
         <v>30</v>
       </c>
       <c r="Y20" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z20" t="n">
         <v>8.25</v>
@@ -2905,28 +2905,28 @@
         <v>14.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AD20" t="n">
         <v>600</v>
       </c>
       <c r="AE20" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AF20" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AG20" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AH20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI20" t="n">
         <v>19</v>
       </c>
       <c r="AJ20" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21">
@@ -2961,90 +2961,90 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="H21" t="n">
         <v>3.1</v>
       </c>
       <c r="I21" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="M21" t="n">
-        <v>2.67</v>
+        <v>2.75</v>
       </c>
       <c r="N21" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O21" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P21" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="R21" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="S21" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="T21" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="U21" t="n">
         <v>11.5</v>
       </c>
       <c r="V21" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="W21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X21" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Y21" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Z21" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AA21" t="n">
         <v>6</v>
       </c>
       <c r="AB21" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC21" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AD21" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AE21" t="n">
         <v>8.25</v>
       </c>
       <c r="AF21" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AI21" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AJ21" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
@@ -3079,13 +3079,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="H22" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I22" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -3114,7 +3114,7 @@
         <v>1.6</v>
       </c>
       <c r="T22" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="U22" t="n">
         <v>5.9</v>
@@ -3138,7 +3138,7 @@
         <v>7.6</v>
       </c>
       <c r="AB22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC22" t="n">
         <v>120</v>
@@ -3147,19 +3147,19 @@
         <v>101</v>
       </c>
       <c r="AE22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF22" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AG22" t="n">
         <v>30</v>
       </c>
       <c r="AH22" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AI22" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AJ22" t="n">
         <v>120</v>
@@ -4192,28 +4192,28 @@
         <v>2.5</v>
       </c>
       <c r="P31" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q31" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R31" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="S31" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="T31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U31" t="n">
         <v>15</v>
       </c>
       <c r="V31" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W31" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X31" t="n">
         <v>17</v>
@@ -4228,7 +4228,7 @@
         <v>8</v>
       </c>
       <c r="AB31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC31" t="n">
         <v>34</v>
@@ -4240,7 +4240,7 @@
         <v>13</v>
       </c>
       <c r="AF31" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG31" t="n">
         <v>10</v>
@@ -4759,13 +4759,13 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="H36" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I36" t="n">
-        <v>3.2</v>
+        <v>2.77</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -4776,42 +4776,42 @@
         <v>4.3</v>
       </c>
       <c r="N36" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="O36" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="S36" t="n">
-        <v>2.33</v>
+        <v>2.35</v>
       </c>
       <c r="T36" t="n">
         <v>8.25</v>
       </c>
       <c r="U36" t="n">
-        <v>9.75</v>
+        <v>10.75</v>
       </c>
       <c r="V36" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="W36" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="X36" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Z36" t="n">
         <v>12</v>
       </c>
-      <c r="Y36" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AA36" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AB36" t="n">
         <v>9.75</v>
@@ -4823,22 +4823,22 @@
         <v>175</v>
       </c>
       <c r="AE36" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="AF36" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AG36" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="AI36" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AJ36" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="37">
@@ -5831,25 +5831,25 @@
         <v>5</v>
       </c>
       <c r="I45" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="J45" t="n">
         <v>1.02</v>
       </c>
       <c r="K45" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="L45" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="M45" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N45" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="O45" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="P45" t="n">
         <v>1.29</v>
@@ -5953,16 +5953,16 @@
         <v>5.75</v>
       </c>
       <c r="I46" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="J46" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K46" t="n">
         <v>11</v>
       </c>
       <c r="L46" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="M46" t="n">
         <v>4.5</v>
@@ -6435,13 +6435,13 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="H50" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I50" t="n">
-        <v>5.9</v>
+        <v>6.3</v>
       </c>
       <c r="J50" t="n">
         <v>1.04</v>
@@ -6462,34 +6462,34 @@
         <v>2.1</v>
       </c>
       <c r="P50" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="Q50" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="R50" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="S50" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T50" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="U50" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="V50" t="n">
         <v>8.25</v>
       </c>
       <c r="W50" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="X50" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="Y50" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z50" t="n">
         <v>8.5</v>
@@ -6498,31 +6498,31 @@
         <v>8.5</v>
       </c>
       <c r="AB50" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AC50" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AD50" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AE50" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AF50" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG50" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AH50" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AI50" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AJ50" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51">
@@ -6557,91 +6557,91 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>9.5</v>
+        <v>8.25</v>
       </c>
       <c r="H51" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="I51" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="J51" t="n">
         <v>1.03</v>
       </c>
       <c r="K51" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="L51" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="M51" t="n">
-        <v>4.65</v>
+        <v>4.45</v>
       </c>
       <c r="N51" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="O51" t="n">
-        <v>2.42</v>
+        <v>2.35</v>
       </c>
       <c r="P51" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="Q51" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="R51" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S51" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="T51" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="U51" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="V51" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W51" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="X51" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="Y51" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="Z51" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AA51" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="AB51" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AC51" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AD51" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AE51" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AF51" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AG51" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AH51" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI51" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AJ51" t="n">
         <v>23</v>
@@ -6679,13 +6679,13 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="H52" t="n">
-        <v>4.25</v>
+        <v>4.05</v>
       </c>
       <c r="I52" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="J52" t="n">
         <v>1.03</v>
@@ -6697,52 +6697,52 @@
         <v>1.18</v>
       </c>
       <c r="M52" t="n">
-        <v>4.35</v>
+        <v>4.25</v>
       </c>
       <c r="N52" t="n">
         <v>1.55</v>
       </c>
       <c r="O52" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="P52" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="Q52" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="R52" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S52" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="T52" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U52" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="V52" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="W52" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="X52" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y52" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z52" t="n">
         <v>9</v>
       </c>
       <c r="AA52" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AB52" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC52" t="n">
         <v>50</v>
@@ -6754,19 +6754,19 @@
         <v>9.25</v>
       </c>
       <c r="AF52" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AG52" t="n">
         <v>8.25</v>
       </c>
       <c r="AH52" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AI52" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AJ52" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="53">
